--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -12,19 +12,16 @@
     <sheet name="Triangle" sheetId="3" r:id="rId3"/>
     <sheet name="TIM Generator" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>SysCLK</t>
   </si>
   <si>
-    <t>APB2</t>
-  </si>
-  <si>
     <t>Prescaler</t>
   </si>
   <si>
@@ -265,28 +262,34 @@
     <t>bits (= convertion cycles)</t>
   </si>
   <si>
-    <t>for STM32F7, Max ADCCLK = 36 MHz</t>
-  </si>
-  <si>
     <t>SYSCLK</t>
   </si>
   <si>
     <t>PRE</t>
   </si>
   <si>
-    <t>Pre out</t>
-  </si>
-  <si>
     <t>PERIOD</t>
   </si>
   <si>
-    <t>Out</t>
+    <t>for STM32F3, Max ADCCLK = ?? MHz</t>
+  </si>
+  <si>
+    <t>AHB / ADC Pre</t>
+  </si>
+  <si>
+    <t>Out Hz</t>
+  </si>
+  <si>
+    <t>Pre out, Hz</t>
+  </si>
+  <si>
+    <t>TIM1 CLK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -320,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,11 +398,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -419,9 +431,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -437,9 +450,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -485,6 +498,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -529,67 +562,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480</c:v>
+                  <c:v>601.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$L$7</c:f>
+              <c:f>Sheet1!$E$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.20370370370370369</c:v>
+                  <c:v>0.26388888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42592592592592593</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.34722222222222215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1851851851851851</c:v>
+                  <c:v>0.43055555555555547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7037037037037037</c:v>
+                  <c:v>0.76388888888888884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>1.9305555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8148148148148149</c:v>
+                  <c:v>5.2638888888888884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0370370370370363</c:v>
+                  <c:v>16.930555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -632,67 +665,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480</c:v>
+                  <c:v>601.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$L$8</c:f>
+              <c:f>Sheet1!$E$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.40740740740740738</c:v>
+                  <c:v>0.52777777777777768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85185185185185186</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3333333333333335</c:v>
+                  <c:v>0.69444444444444431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3703703703703702</c:v>
+                  <c:v>0.86111111111111094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4074074074074074</c:v>
+                  <c:v>1.5277777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4444444444444446</c:v>
+                  <c:v>3.8611111111111107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6296296296296298</c:v>
+                  <c:v>10.527777777777777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.074074074074073</c:v>
+                  <c:v>33.861111111111107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -735,67 +768,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480</c:v>
+                  <c:v>601.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$L$9</c:f>
+              <c:f>Sheet1!$E$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.61111111111111105</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2777777777777777</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9999999999999998</c:v>
+                  <c:v>1.0416666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5555555555555554</c:v>
+                  <c:v>1.2916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1111111111111107</c:v>
+                  <c:v>2.2916666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6666666666666661</c:v>
+                  <c:v>5.7916666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4444444444444429</c:v>
+                  <c:v>15.791666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.111111111111111</c:v>
+                  <c:v>50.791666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -838,67 +871,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144</c:v>
+                  <c:v>181.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480</c:v>
+                  <c:v>601.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$L$10</c:f>
+              <c:f>Sheet1!$E$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.81481481481481477</c:v>
+                  <c:v>1.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7037037037037037</c:v>
+                  <c:v>1.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.666666666666667</c:v>
+                  <c:v>1.3888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7407407407407405</c:v>
+                  <c:v>1.7222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8148148148148149</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8888888888888893</c:v>
+                  <c:v>7.7222222222222214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.25925925925926</c:v>
+                  <c:v>21.055555555555554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.148148148148145</c:v>
+                  <c:v>67.722222222222214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -958,7 +991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="127046400"/>
@@ -1017,7 +1050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="127040128"/>
@@ -1060,7 +1093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1090,7 +1123,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1656,7 +1689,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1680,9 +1713,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1720,9 +1753,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1757,7 +1790,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1792,7 +1825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1966,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L55"/>
+  <dimension ref="B2:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,519 +2018,588 @@
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>216000000</v>
+        <v>72000000</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8">
-        <f>C2/2</f>
-        <v>108000000</v>
+        <f>C2</f>
+        <v>72000000</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="1">
-        <v>28</v>
+        <v>4.5</v>
       </c>
       <c r="H6" s="1">
-        <v>56</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="1">
-        <v>84</v>
+        <v>19.5</v>
       </c>
       <c r="J6" s="1">
-        <v>112</v>
+        <v>61.5</v>
       </c>
       <c r="K6" s="1">
-        <v>144</v>
+        <v>181.5</v>
       </c>
       <c r="L6" s="1">
-        <v>480</v>
+        <v>601.5</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <f>C$3/B7/1000000</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4">
         <f>1/C7*1000</f>
-        <v>18.518518518518519</v>
+        <v>13.888888888888888</v>
       </c>
       <c r="E7" s="11">
         <f>(E$6+$C$4)*$D7/1000</f>
-        <v>0.20370370370370369</v>
+        <v>0.13194444444444442</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:L7" si="0">(F$6+$C$4)*$D7/1000</f>
-        <v>0.42592592592592593</v>
+        <f t="shared" ref="F7:L8" si="0">(F$6+$C$4)*$D7/1000</f>
+        <v>0.14583333333333331</v>
       </c>
       <c r="G7" s="3">
         <f>(G$6+$C$4)*$D7/1000</f>
-        <v>0.66666666666666674</v>
+        <v>0.17361111111111108</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>1.1851851851851851</v>
+        <v>0.21527777777777773</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>1.7037037037037037</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223</v>
+        <v>0.96527777777777768</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>2.8148148148148149</v>
+        <v>2.6319444444444442</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>9.0370370370370363</v>
+        <v>8.4652777777777768</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C10" si="1">C$3/B8/1000000</f>
-        <v>27</v>
+        <f>C$3/B8/1000000</f>
+        <v>36</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D10" si="2">1/C8*1000</f>
-        <v>37.037037037037038</v>
+        <f>1/C8*1000</f>
+        <v>27.777777777777775</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" ref="E8:L10" si="3">(E$6+$C$4)*$D8/1000</f>
-        <v>0.40740740740740738</v>
+        <f>(E$6+$C$4)*$D8/1000</f>
+        <v>0.26388888888888884</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="3"/>
-        <v>0.85185185185185186</v>
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333335</v>
+        <f>(G$6+$C$4)*$D8/1000</f>
+        <v>0.34722222222222215</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>2.3703703703703702</v>
+        <f t="shared" si="0"/>
+        <v>0.43055555555555547</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>3.4074074074074074</v>
+        <f t="shared" si="0"/>
+        <v>0.76388888888888884</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
-        <v>4.4444444444444446</v>
+        <f t="shared" si="0"/>
+        <v>1.9305555555555554</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="3"/>
-        <v>5.6296296296296298</v>
+        <f t="shared" si="0"/>
+        <v>5.2638888888888884</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.074074074074073</v>
+        <f t="shared" si="0"/>
+        <v>16.930555555555554</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <f>C$3/B9/1000000</f>
+        <f t="shared" ref="C9:C11" si="1">C$3/B9/1000000</f>
         <v>18</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D9:D11" si="2">1/C9*1000</f>
         <v>55.55555555555555</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="3"/>
-        <v>0.61111111111111105</v>
+        <f t="shared" ref="E9:L15" si="3">(E$6+$C$4)*$D9/1000</f>
+        <v>0.52777777777777768</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="3"/>
-        <v>1.2777777777777777</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>1.9999999999999998</v>
+        <v>0.69444444444444431</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>3.5555555555555554</v>
+        <v>0.86111111111111094</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>5.1111111111111107</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>6.6666666666666661</v>
+        <v>3.8611111111111107</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="3"/>
-        <v>8.4444444444444429</v>
+        <v>10.527777777777777</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="3"/>
-        <v>27.111111111111111</v>
+        <v>33.861111111111107</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
+        <f>C$3/B10/1000000</f>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="2"/>
-        <v>74.074074074074076</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.81481481481481477</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
-        <v>1.7037037037037037</v>
+        <v>0.875</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>2.666666666666667</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>4.7407407407407405</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>6.8148148148148149</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>8.8888888888888893</v>
+        <v>5.7916666666666661</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>11.25925925925926</v>
+        <v>15.791666666666666</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>36.148148148148145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>50.791666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888886</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7222222222222219</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>7.7222222222222214</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>21.055555555555554</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>67.722222222222214</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:C15" si="4">C$3/B12/1000000</f>
+        <v>7.2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D15" si="5">1/C12*1000</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>1.3194444444444444</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1527777777777777</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8194444444444442</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>9.6527777777777768</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>26.319444444444446</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>84.652777777777786</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <f>C$3/B13/1000000</f>
-        <v>54</v>
-      </c>
-      <c r="D13" s="4">
-        <f>1/C13*1000</f>
-        <v>18.518518518518519</v>
-      </c>
-      <c r="E13" s="13">
-        <f>E7*320</f>
-        <v>65.185185185185176</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" ref="F13:L13" si="4">F7*320</f>
-        <v>136.2962962962963</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="4"/>
-        <v>213.33333333333337</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="4"/>
-        <v>379.25925925925924</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="4"/>
-        <v>545.18518518518522</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="4"/>
-        <v>711.11111111111109</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="4"/>
-        <v>900.74074074074076</v>
-      </c>
-      <c r="L13" s="14">
-        <f t="shared" si="4"/>
-        <v>2891.8518518518517</v>
+      <c r="D13" s="19">
+        <f t="shared" si="5"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>11.583333333333332</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
+        <v>31.583333333333332</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>101.58333333333333</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14" si="5">C$3/B14/1000000</f>
-        <v>27</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:D16" si="6">1/C14*1000</f>
-        <v>37.037037037037038</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" ref="E14:L16" si="7">E8*320</f>
-        <v>130.37037037037035</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="7"/>
-        <v>272.59259259259261</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="7"/>
-        <v>426.66666666666674</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="7"/>
-        <v>758.51851851851848</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="7"/>
-        <v>1090.3703703703704</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="7"/>
-        <v>1422.2222222222222</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="7"/>
-        <v>1801.4814814814815</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="7"/>
-        <v>5783.7037037037035</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14" si="6">C$3/B14/1000000</f>
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" ref="D14" si="7">1/C14*1000</f>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4444444444444438</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>15.444444444444443</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>42.111111111111107</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>135.44444444444443</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <f>C$3/B15/1000000</f>
-        <v>18</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="6"/>
-        <v>55.55555555555555</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="7"/>
-        <v>195.55555555555554</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" si="7"/>
-        <v>408.88888888888886</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="7"/>
-        <v>639.99999999999989</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="7"/>
-        <v>1137.7777777777778</v>
-      </c>
-      <c r="I15" s="15">
-        <f t="shared" si="7"/>
-        <v>1635.5555555555554</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="7"/>
-        <v>2133.333333333333</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="7"/>
-        <v>2702.2222222222217</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="7"/>
-        <v>8675.5555555555547</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <f>C$3/B16/1000000</f>
-        <v>13.5</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="6"/>
-        <v>74.074074074074076</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="7"/>
-        <v>260.7407407407407</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="7"/>
-        <v>545.18518518518522</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" si="7"/>
-        <v>853.33333333333348</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="7"/>
-        <v>1517.037037037037</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" si="7"/>
-        <v>2180.7407407407409</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="7"/>
-        <v>2844.4444444444443</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="7"/>
-        <v>3602.962962962963</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="7"/>
-        <v>11567.407407407407</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="5"/>
+        <v>444.4444444444444</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2222222222222214</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555545</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>6.8888888888888875</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>30.888888888888886</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>84.222222222222214</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>270.88888888888886</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C$3/B18/1000000</f>
+        <v>72</v>
+      </c>
+      <c r="D18" s="4">
+        <f>1/C18*1000</f>
+        <v>13.888888888888888</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" ref="E18:L20" si="8">E8*320</f>
+        <v>84.444444444444429</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="8"/>
+        <v>93.333333333333314</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="8"/>
+        <v>111.11111111111109</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="8"/>
+        <v>137.77777777777774</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="8"/>
+        <v>244.44444444444443</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="8"/>
+        <v>617.77777777777771</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="8"/>
+        <v>1684.4444444444443</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="8"/>
+        <v>5417.7777777777774</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <f>C$3/B19/1000000</f>
-        <v>54</v>
+        <f t="shared" ref="C19" si="9">C$3/B19/1000000</f>
+        <v>36</v>
       </c>
       <c r="D19" s="4">
-        <f>1/C19*1000</f>
-        <v>18.518518518518519</v>
-      </c>
-      <c r="E19" s="2">
-        <f>1/E13*1000</f>
-        <v>15.340909090909092</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ref="F19:L19" si="8">1/F13*1000</f>
-        <v>7.3369565217391299</v>
-      </c>
-      <c r="G19" s="5">
+        <f t="shared" ref="D19:D21" si="10">1/C19*1000</f>
+        <v>27.777777777777775</v>
+      </c>
+      <c r="E19" s="13">
         <f t="shared" si="8"/>
-        <v>4.6874999999999991</v>
-      </c>
-      <c r="H19" s="5">
+        <v>168.88888888888886</v>
+      </c>
+      <c r="F19" s="15">
         <f t="shared" si="8"/>
-        <v>2.63671875</v>
-      </c>
-      <c r="I19" s="5">
+        <v>186.66666666666663</v>
+      </c>
+      <c r="G19" s="15">
         <f t="shared" si="8"/>
-        <v>1.8342391304347825</v>
-      </c>
-      <c r="J19" s="5">
+        <v>222.22222222222217</v>
+      </c>
+      <c r="H19" s="15">
         <f t="shared" si="8"/>
-        <v>1.40625</v>
-      </c>
-      <c r="K19" s="5">
+        <v>275.55555555555549</v>
+      </c>
+      <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>1.1101973684210527</v>
-      </c>
-      <c r="L19" s="5">
+        <v>488.88888888888886</v>
+      </c>
+      <c r="J19" s="15">
         <f t="shared" si="8"/>
-        <v>0.34579918032786888</v>
+        <v>1235.5555555555554</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="8"/>
+        <v>3368.8888888888887</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="8"/>
+        <v>10835.555555555555</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -2506,43 +2608,43 @@
       </c>
       <c r="C20" s="1">
         <f>C$3/B20/1000000</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:D22" si="9">1/C20*1000</f>
-        <v>37.037037037037038</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:L20" si="10">1/E14*1000</f>
-        <v>7.6704545454545459</v>
-      </c>
-      <c r="F20" s="5">
         <f t="shared" si="10"/>
-        <v>3.668478260869565</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="10"/>
-        <v>2.3437499999999996</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="10"/>
-        <v>1.318359375</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="10"/>
-        <v>0.91711956521739124</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="10"/>
-        <v>0.703125</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="10"/>
-        <v>0.55509868421052633</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="10"/>
-        <v>0.17289959016393444</v>
+        <v>55.55555555555555</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="8"/>
+        <v>253.33333333333331</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="8"/>
+        <v>333.33333333333326</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="8"/>
+        <v>413.33333333333326</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="8"/>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="8"/>
+        <v>1853.333333333333</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="8"/>
+        <v>5053.333333333333</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="8"/>
+        <v>16253.333333333332</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -2551,43 +2653,43 @@
       </c>
       <c r="C21" s="1">
         <f>C$3/B21/1000000</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="9"/>
-        <v>55.55555555555555</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21:L21" si="11">1/E15*1000</f>
-        <v>5.1136363636363633</v>
-      </c>
-      <c r="F21" s="5">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" ref="E21:L21" si="11">E11*320</f>
+        <v>337.77777777777771</v>
+      </c>
+      <c r="F21" s="16">
         <f t="shared" si="11"/>
-        <v>2.4456521739130435</v>
-      </c>
-      <c r="G21" s="5">
+        <v>373.33333333333326</v>
+      </c>
+      <c r="G21" s="15">
         <f t="shared" si="11"/>
-        <v>1.5625000000000002</v>
-      </c>
-      <c r="H21" s="5">
+        <v>444.44444444444434</v>
+      </c>
+      <c r="H21" s="15">
         <f t="shared" si="11"/>
-        <v>0.87890624999999989</v>
-      </c>
-      <c r="I21" s="5">
+        <v>551.11111111111097</v>
+      </c>
+      <c r="I21" s="15">
         <f t="shared" si="11"/>
-        <v>0.61141304347826086</v>
-      </c>
-      <c r="J21" s="5">
+        <v>977.77777777777771</v>
+      </c>
+      <c r="J21" s="15">
         <f t="shared" si="11"/>
-        <v>0.46875000000000011</v>
-      </c>
-      <c r="K21" s="5">
+        <v>2471.1111111111109</v>
+      </c>
+      <c r="K21" s="15">
         <f t="shared" si="11"/>
-        <v>0.37006578947368429</v>
-      </c>
-      <c r="L21" s="5">
+        <v>6737.7777777777774</v>
+      </c>
+      <c r="L21" s="15">
         <f t="shared" si="11"/>
-        <v>0.11526639344262296</v>
+        <v>21671.111111111109</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -2595,454 +2697,762 @@
         <v>8</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22" si="12">C$3/B22/1000000</f>
-        <v>13.5</v>
+        <f>C$3/B22/1000000</f>
+        <v>9</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="9"/>
-        <v>74.074074074074076</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:L22" si="13">1/E16*1000</f>
-        <v>3.8352272727272729</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="13"/>
-        <v>1.8342391304347825</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="13"/>
-        <v>1.1718749999999998</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="13"/>
-        <v>0.6591796875</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="13"/>
-        <v>0.45855978260869562</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="13"/>
-        <v>0.3515625</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="13"/>
-        <v>0.27754934210526316</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="13"/>
-        <v>8.6449795081967221E-2</v>
+        <f>1/C22*1000</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22:L24" si="12">E12*320</f>
+        <v>422.22222222222223</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="12"/>
+        <v>466.66666666666663</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="12"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="12"/>
+        <v>688.88888888888891</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="12"/>
+        <v>1222.2222222222222</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="12"/>
+        <v>3088.8888888888887</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="12"/>
+        <v>8422.2222222222226</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="12"/>
+        <v>27088.888888888891</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23" si="13">C$3/B23/1000000</f>
+        <v>7.2</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:D25" si="14">1/C23*1000</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="12"/>
+        <v>506.66666666666663</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="12"/>
+        <v>666.66666666666652</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="12"/>
+        <v>826.66666666666652</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="12"/>
+        <v>1466.6666666666665</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="12"/>
+        <v>3706.6666666666661</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="12"/>
+        <v>10106.666666666666</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="12"/>
+        <v>32506.666666666664</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C$3/B24/1000000</f>
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="14"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="12"/>
+        <v>675.55555555555543</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="12"/>
+        <v>746.66666666666652</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="12"/>
+        <v>888.88888888888869</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="12"/>
+        <v>1102.2222222222219</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="12"/>
+        <v>1955.5555555555554</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="12"/>
+        <v>4942.2222222222217</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="12"/>
+        <v>13475.555555555555</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="12"/>
+        <v>43342.222222222219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C$3/B25/1000000</f>
+        <v>4.5</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="14"/>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" ref="E25:L25" si="15">E15*320</f>
+        <v>1351.1111111111109</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="15"/>
+        <v>1493.333333333333</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="15"/>
+        <v>1777.7777777777774</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="15"/>
+        <v>2204.4444444444439</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="15"/>
+        <v>3911.1111111111109</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="15"/>
+        <v>9884.4444444444434</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="15"/>
+        <v>26951.111111111109</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="15"/>
+        <v>86684.444444444438</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C$3/B28/1000000</f>
+        <v>72</v>
+      </c>
+      <c r="D28" s="4">
+        <f>1/C28*1000</f>
+        <v>13.888888888888888</v>
+      </c>
+      <c r="E28" s="2">
+        <f>1/E18*1000</f>
+        <v>11.842105263157897</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:L28" si="16">1/F18*1000</f>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="16"/>
+        <v>9.0000000000000036</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="16"/>
+        <v>7.2580645161290347</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="16"/>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="16"/>
+        <v>1.6187050359712232</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="16"/>
+        <v>0.59366754617414252</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18457752255947499</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="1">
+        <f>C$3/B29/1000000</f>
+        <v>36</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29:D31" si="17">1/C29*1000</f>
+        <v>27.777777777777775</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:L29" si="18">1/E19*1000</f>
+        <v>5.9210526315789487</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="18"/>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="18"/>
+        <v>4.5000000000000018</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="18"/>
+        <v>3.6290322580645173</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="18"/>
+        <v>2.0454545454545454</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="18"/>
+        <v>0.80935251798561159</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29683377308707126</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="18"/>
+        <v>9.2288761279737494E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C$3/B30/1000000</f>
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="17"/>
+        <v>55.55555555555555</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:L30" si="19">1/E20*1000</f>
+        <v>3.9473684210526319</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="19"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="19"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="19"/>
+        <v>2.4193548387096779</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="19"/>
+        <v>0.53956834532374109</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="19"/>
+        <v>0.19788918205804751</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="19"/>
+        <v>6.1525840853158334E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31" si="20">C$3/B31/1000000</f>
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="17"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:L31" si="21">1/E21*1000</f>
+        <v>2.9605263157894743</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="21"/>
+        <v>2.6785714285714288</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="21"/>
+        <v>2.2500000000000009</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="21"/>
+        <v>1.8145161290322587</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="21"/>
+        <v>0.40467625899280579</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="21"/>
+        <v>0.14841688654353563</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="21"/>
+        <v>4.6144380639868747E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <f>C$3/B32/1000000</f>
         <v>9</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D32" s="4">
+        <f>1/C32*1000</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="E32" s="2">
+        <f>1/E22*1000</f>
+        <v>2.3684210526315792</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:L32" si="22">1/F22*1000</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="22"/>
+        <v>1.8</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="22"/>
+        <v>1.4516129032258063</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="22"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="22"/>
+        <v>0.32374100719424459</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="22"/>
+        <v>0.11873350923482849</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="22"/>
+        <v>3.6915504511895E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C$3/B33/1000000</f>
+        <v>7.2</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33:D35" si="23">1/C33*1000</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ref="E33:L33" si="24">1/E23*1000</f>
+        <v>1.9736842105263159</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="24"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="24"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="24"/>
+        <v>1.209677419354839</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="24"/>
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="24"/>
+        <v>0.26978417266187055</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="24"/>
+        <v>9.8944591029023754E-2</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="24"/>
+        <v>3.0762920426579167E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <f>C$3/B34/1000000</f>
+        <v>6</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="23"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" ref="E34:L34" si="25">1/E24*1000</f>
+        <v>1.4802631578947372</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="25"/>
+        <v>1.3392857142857144</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="25"/>
+        <v>1.1250000000000004</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.90725806451612934</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.51136363636363635</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.2023381294964029</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="25"/>
+        <v>7.4208443271767816E-2</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="25"/>
+        <v>2.3072190319934373E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35" si="26">C$3/B35/1000000</f>
+        <v>4.5</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="23"/>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35:L35" si="27">1/E25*1000</f>
+        <v>0.74013157894736858</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="27"/>
+        <v>0.66964285714285721</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="27"/>
+        <v>0.56250000000000022</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="27"/>
+        <v>0.45362903225806467</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="27"/>
+        <v>0.25568181818181818</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="27"/>
+        <v>0.10116906474820145</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="27"/>
+        <v>3.7104221635883908E-2</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="27"/>
+        <v>1.1536095159967187E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D25" s="17">
-        <f>E7</f>
-        <v>0.20370370370370369</v>
-      </c>
-      <c r="F25" s="18">
-        <f>E13</f>
-        <v>65.185185185185176</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="D38" s="17">
+        <f>E8</f>
+        <v>0.26388888888888884</v>
+      </c>
+      <c r="F38" s="18">
+        <f>E18</f>
+        <v>84.444444444444429</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="D26" s="17">
-        <f>E8</f>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="F26" s="18">
-        <f>E14</f>
-        <v>130.37037037037035</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>15</v>
-      </c>
-      <c r="D27" s="17">
-        <f>F7</f>
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="F27" s="18">
-        <f>F13</f>
-        <v>136.2962962962963</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="D39" s="17">
         <f>E9</f>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="F28" s="18">
-        <f>E15</f>
-        <v>195.55555555555554</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" s="17">
-        <f>G7</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="F29" s="18">
-        <f>G13</f>
-        <v>213.33333333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="17">
-        <f>E10</f>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="F30" s="18">
-        <f>E16</f>
-        <v>260.7407407407407</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
-      <c r="D31" s="17">
-        <f>F8</f>
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="F31" s="18">
-        <f>F14</f>
-        <v>272.59259259259261</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>56</v>
-      </c>
-      <c r="D32" s="17">
-        <f>H7</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="F32" s="18">
-        <f>H13</f>
-        <v>379.25925925925924</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>15</v>
-      </c>
-      <c r="D33" s="17">
-        <f>F9</f>
-        <v>1.2777777777777777</v>
-      </c>
-      <c r="F33" s="18">
-        <f>F15</f>
-        <v>408.88888888888886</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34" s="17">
-        <f>G8</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="F34" s="18">
-        <f>G14</f>
-        <v>426.66666666666674</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>84</v>
-      </c>
-      <c r="D35" s="17">
-        <f>I7</f>
-        <v>1.7037037037037037</v>
-      </c>
-      <c r="F35" s="18">
-        <f>I13</f>
-        <v>545.18518518518522</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>28</v>
-      </c>
-      <c r="D36" s="17">
-        <f>G9</f>
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="F36" s="18">
-        <f>G15</f>
-        <v>639.99999999999989</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>112</v>
-      </c>
-      <c r="D37" s="17">
-        <f>J7</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="F37" s="18">
-        <f>J13</f>
-        <v>711.11111111111109</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>56</v>
-      </c>
-      <c r="D38" s="17">
-        <f>H8</f>
-        <v>2.3703703703703702</v>
-      </c>
-      <c r="F38" s="18">
-        <f>H14</f>
-        <v>758.51851851851848</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>28</v>
-      </c>
-      <c r="D39" s="17">
-        <f>G10</f>
-        <v>2.666666666666667</v>
+        <v>0.52777777777777768</v>
       </c>
       <c r="F39" s="18">
-        <f>G16</f>
-        <v>853.33333333333348</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <f>E19</f>
+        <v>168.88888888888886</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17">
-        <f>K7</f>
-        <v>2.8148148148148149</v>
+        <f>F8</f>
+        <v>0.29166666666666663</v>
       </c>
       <c r="F40" s="18">
-        <f>K13</f>
-        <v>900.74074074074076</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <f>F18</f>
+        <v>93.333333333333314</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17">
+        <f>E10</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F41" s="18">
+        <f>E20</f>
+        <v>253.33333333333331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42" s="17">
+        <f>G8</f>
+        <v>0.34722222222222215</v>
+      </c>
+      <c r="F42" s="18">
+        <f>G18</f>
+        <v>111.11111111111109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="17">
+        <f>E11</f>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="F43" s="18">
+        <f>E21</f>
+        <v>337.77777777777771</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
         <v>4</v>
       </c>
-      <c r="C41">
-        <v>84</v>
-      </c>
-      <c r="D41" s="17">
-        <f>I8</f>
-        <v>3.4074074074074074</v>
-      </c>
-      <c r="F41" s="18">
-        <f>I14</f>
-        <v>1090.3703703703704</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" s="17">
+        <f>F9</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="F44" s="18">
+        <f>F19</f>
+        <v>186.66666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>56</v>
+      </c>
+      <c r="D45" s="17">
+        <f>H8</f>
+        <v>0.43055555555555547</v>
+      </c>
+      <c r="F45" s="18">
+        <f>H18</f>
+        <v>137.77777777777774</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>56</v>
-      </c>
-      <c r="D42" s="17">
-        <f>H9</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="F42" s="18">
-        <f>H15</f>
-        <v>1137.7777777777778</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46" s="17">
+        <f>F10</f>
+        <v>0.875</v>
+      </c>
+      <c r="F46" s="18">
+        <f>F20</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
         <v>4</v>
       </c>
-      <c r="C43">
-        <v>112</v>
-      </c>
-      <c r="D43" s="17">
-        <f>J8</f>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="F43" s="18">
-        <f>J14</f>
-        <v>1422.2222222222222</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>56</v>
-      </c>
-      <c r="D44" s="17">
-        <f>H10</f>
-        <v>4.7407407407407405</v>
-      </c>
-      <c r="F44" s="18">
-        <f>H16</f>
-        <v>1517.037037037037</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>84</v>
-      </c>
-      <c r="D45" s="17">
-        <f>I9</f>
-        <v>5.1111111111111107</v>
-      </c>
-      <c r="F45" s="18">
-        <f>I15</f>
-        <v>1635.5555555555554</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>144</v>
-      </c>
-      <c r="D46" s="17">
-        <f>K8</f>
-        <v>5.6296296296296298</v>
-      </c>
-      <c r="F46" s="18">
-        <f>K14</f>
-        <v>1801.4814814814815</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
-        <v>6</v>
-      </c>
       <c r="C47">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17">
-        <f>J9</f>
-        <v>6.6666666666666661</v>
+        <f>G9</f>
+        <v>0.69444444444444431</v>
       </c>
       <c r="F47" s="18">
-        <f>J15</f>
-        <v>2133.333333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <f>G19</f>
+        <v>222.22222222222217</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>84</v>
       </c>
       <c r="D48" s="17">
-        <f>I10</f>
-        <v>6.8148148148148149</v>
+        <f>I8</f>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F48" s="18">
-        <f>I16</f>
-        <v>2180.7407407407409</v>
+        <f>I18</f>
+        <v>244.44444444444443</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -3050,47 +3460,47 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17">
-        <f>K9</f>
-        <v>8.4444444444444429</v>
+        <f>G10</f>
+        <v>1.0416666666666665</v>
       </c>
       <c r="F49" s="18">
-        <f>K15</f>
-        <v>2702.2222222222217</v>
+        <f>G20</f>
+        <v>333.33333333333326</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>112</v>
       </c>
       <c r="D50" s="17">
-        <f>J10</f>
-        <v>8.8888888888888893</v>
+        <f>J8</f>
+        <v>1.9305555555555554</v>
       </c>
       <c r="F50" s="18">
-        <f>J16</f>
-        <v>2844.4444444444443</v>
+        <f>J18</f>
+        <v>617.77777777777771</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>480</v>
+        <v>56</v>
       </c>
       <c r="D51" s="17">
-        <f>L7</f>
-        <v>9.0370370370370363</v>
+        <f>H9</f>
+        <v>0.86111111111111094</v>
       </c>
       <c r="F51" s="18">
-        <f>L13</f>
-        <v>2891.8518518518517</v>
+        <f>H19</f>
+        <v>275.55555555555549</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -3098,63 +3508,271 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="D52" s="17">
-        <f>K10</f>
-        <v>11.25925925925926</v>
+        <f>G11</f>
+        <v>1.3888888888888886</v>
       </c>
       <c r="F52" s="18">
-        <f>K16</f>
-        <v>3602.962962962963</v>
+        <f>G21</f>
+        <v>444.44444444444434</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="D53" s="17">
-        <f>L8</f>
-        <v>18.074074074074073</v>
+        <f>K8</f>
+        <v>5.2638888888888884</v>
       </c>
       <c r="F53" s="18">
-        <f>L14</f>
-        <v>5783.7037037037035</v>
+        <f>K18</f>
+        <v>1684.4444444444443</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>480</v>
+        <v>84</v>
       </c>
       <c r="D54" s="17">
-        <f>L9</f>
-        <v>27.111111111111111</v>
+        <f>I9</f>
+        <v>1.5277777777777777</v>
       </c>
       <c r="F54" s="18">
-        <f>L15</f>
-        <v>8675.5555555555547</v>
+        <f>I19</f>
+        <v>488.88888888888886</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55" s="17">
+        <f>H10</f>
+        <v>1.2916666666666665</v>
+      </c>
+      <c r="F55" s="18">
+        <f>H20</f>
+        <v>413.33333333333326</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>112</v>
+      </c>
+      <c r="D56" s="17">
+        <f>J9</f>
+        <v>3.8611111111111107</v>
+      </c>
+      <c r="F56" s="18">
+        <f>J19</f>
+        <v>1235.5555555555554</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
         <v>8</v>
       </c>
-      <c r="C55">
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" s="17">
+        <f>H11</f>
+        <v>1.7222222222222219</v>
+      </c>
+      <c r="F57" s="18">
+        <f>H21</f>
+        <v>551.11111111111097</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="12">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>84</v>
+      </c>
+      <c r="D58" s="17">
+        <f>I10</f>
+        <v>2.2916666666666665</v>
+      </c>
+      <c r="F58" s="18">
+        <f>I20</f>
+        <v>733.33333333333326</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="12">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>144</v>
+      </c>
+      <c r="D59" s="17">
+        <f>K9</f>
+        <v>10.527777777777777</v>
+      </c>
+      <c r="F59" s="18">
+        <f>K19</f>
+        <v>3368.8888888888887</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>112</v>
+      </c>
+      <c r="D60" s="17">
+        <f>J10</f>
+        <v>5.7916666666666661</v>
+      </c>
+      <c r="F60" s="18">
+        <f>J20</f>
+        <v>1853.333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="12">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>84</v>
+      </c>
+      <c r="D61" s="17">
+        <f>I11</f>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="F61" s="18">
+        <f>I21</f>
+        <v>977.77777777777771</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="12">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>144</v>
+      </c>
+      <c r="D62" s="17">
+        <f>K10</f>
+        <v>15.791666666666666</v>
+      </c>
+      <c r="F62" s="18">
+        <f>K20</f>
+        <v>5053.333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>112</v>
+      </c>
+      <c r="D63" s="17">
+        <f>J11</f>
+        <v>7.7222222222222214</v>
+      </c>
+      <c r="F63" s="18">
+        <f>J21</f>
+        <v>2471.1111111111109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>480</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D64" s="17">
+        <f>L8</f>
+        <v>16.930555555555554</v>
+      </c>
+      <c r="F64" s="18">
+        <f>L18</f>
+        <v>5417.7777777777774</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="12">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>144</v>
+      </c>
+      <c r="D65" s="17">
+        <f>K11</f>
+        <v>21.055555555555554</v>
+      </c>
+      <c r="F65" s="18">
+        <f>K21</f>
+        <v>6737.7777777777774</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="12">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>480</v>
+      </c>
+      <c r="D66" s="17">
+        <f>L9</f>
+        <v>33.861111111111107</v>
+      </c>
+      <c r="F66" s="18">
+        <f>L19</f>
+        <v>10835.555555555555</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>480</v>
+      </c>
+      <c r="D67" s="17">
         <f>L10</f>
-        <v>36.148148148148145</v>
-      </c>
-      <c r="F55" s="18">
-        <f>L16</f>
-        <v>11567.407407407407</v>
+        <v>50.791666666666664</v>
+      </c>
+      <c r="F67" s="18">
+        <f>L20</f>
+        <v>16253.333333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>480</v>
+      </c>
+      <c r="D68" s="17">
+        <f>L11</f>
+        <v>67.722222222222214</v>
+      </c>
+      <c r="F68" s="18">
+        <f>L21</f>
+        <v>21671.111111111109</v>
       </c>
     </row>
   </sheetData>
@@ -3168,300 +3786,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3473,7 +4091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3481,102 +4099,102 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3587,47 +4205,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>72000000</v>
+      </c>
+      <c r="C3">
+        <f>B3*2</f>
+        <v>144000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>216000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <f>$B$3/(B6+1)</f>
+        <f>$C$3/(B6+1)</f>
         <v>2000000</v>
       </c>
       <c r="D6">
@@ -3637,13 +4263,16 @@
         <f>C6/(D6+1)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C11" si="0">$B$3/(B7+1)</f>
+        <f t="shared" ref="C7:C11" si="0">$C$3/(B7+1)</f>
         <v>2000000</v>
       </c>
       <c r="D7">
@@ -3653,26 +4282,32 @@
         <f t="shared" ref="E7:E11" si="1">C7/(D7+1)</f>
         <v>80000</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2160000</v>
+        <v>2880000</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -3685,10 +4320,13 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -3701,10 +4339,13 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -3715,6 +4356,9 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G11">
         <v>10000</v>
       </c>
     </row>

--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>PERIOD</t>
   </si>
   <si>
-    <t>for STM32F3, Max ADCCLK = ?? MHz</t>
-  </si>
-  <si>
     <t>AHB / ADC Pre</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>TIM1 CLK</t>
+  </si>
+  <si>
+    <t>for STM32F3 Max ADCCLK = 72 MHz</t>
   </si>
 </sst>
 </file>
@@ -528,9 +528,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Pre=2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -590,33 +587,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$L$8</c:f>
+              <c:f>Sheet1!$E$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.26388888888888884</c:v>
+                  <c:v>0.13194444444444442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29166666666666663</c:v>
+                  <c:v>0.14583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34722222222222215</c:v>
+                  <c:v>0.17361111111111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43055555555555547</c:v>
+                  <c:v>0.21527777777777773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76388888888888884</c:v>
+                  <c:v>0.38194444444444442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9305555555555554</c:v>
+                  <c:v>0.96527777777777768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2638888888888884</c:v>
+                  <c:v>2.6319444444444442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.930555555555554</c:v>
+                  <c:v>8.4652777777777768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,9 +628,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Pre=4</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -693,33 +687,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$L$9</c:f>
+              <c:f>Sheet1!$E$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.52777777777777768</c:v>
+                  <c:v>0.26388888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58333333333333326</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69444444444444431</c:v>
+                  <c:v>0.34722222222222215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86111111111111094</c:v>
+                  <c:v>0.43055555555555547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5277777777777777</c:v>
+                  <c:v>0.76388888888888884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8611111111111107</c:v>
+                  <c:v>1.9305555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.527777777777777</c:v>
+                  <c:v>5.2638888888888884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.861111111111107</c:v>
+                  <c:v>16.930555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,9 +728,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Pre=6</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -796,33 +787,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$L$10</c:f>
+              <c:f>Sheet1!$E$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.79166666666666663</c:v>
+                  <c:v>0.52777777777777768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0416666666666665</c:v>
+                  <c:v>0.69444444444444431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2916666666666665</c:v>
+                  <c:v>0.86111111111111094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2916666666666665</c:v>
+                  <c:v>1.5277777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7916666666666661</c:v>
+                  <c:v>3.8611111111111107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.791666666666666</c:v>
+                  <c:v>10.527777777777777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.791666666666664</c:v>
+                  <c:v>33.861111111111107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,110 +821,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Pre=8</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$6:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>181.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>601.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$11:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.0555555555555554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7222222222222219</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0555555555555554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7222222222222214</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.055555555555554</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.722222222222214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
+              <c16:uniqueId val="{00000004-F463-4F50-8B1C-D2B5E736CDD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2001,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,12 +1909,12 @@
         <v>72000000</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="8">
         <f>C2</f>
@@ -4207,7 +4095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4222,7 +4110,7 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -4239,13 +4127,13 @@
         <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">

--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Java processing" sheetId="2" r:id="rId2"/>
-    <sheet name="Triangle" sheetId="3" r:id="rId3"/>
-    <sheet name="TIM Generator" sheetId="4" r:id="rId4"/>
+    <sheet name="ADC" sheetId="1" r:id="rId1"/>
+    <sheet name="TIM Generator" sheetId="4" r:id="rId2"/>
+    <sheet name="Java processing" sheetId="2" r:id="rId3"/>
+    <sheet name="Triangle" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -554,7 +554,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$L$6</c:f>
+              <c:f>ADC!$E$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -587,7 +587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$L$7</c:f>
+              <c:f>ADC!$E$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -654,7 +654,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$L$6</c:f>
+              <c:f>ADC!$E$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -687,7 +687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$L$8</c:f>
+              <c:f>ADC!$E$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -754,7 +754,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$L$6</c:f>
+              <c:f>ADC!$E$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -787,7 +787,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$L$9</c:f>
+              <c:f>ADC!$E$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1890,7 +1890,7 @@
   <dimension ref="B2:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,6 +3672,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>72000000</v>
+      </c>
+      <c r="C3">
+        <f>B3*2</f>
+        <v>144000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <f>$C$3/(B6+1)</f>
+        <v>2000000</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f>C6/(D6+1)</f>
+        <v>100000</v>
+      </c>
+      <c r="G6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C11" si="0">$C$3/(B7+1)</f>
+        <v>2000000</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E11" si="1">C7/(D7+1)</f>
+        <v>80000</v>
+      </c>
+      <c r="G7">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2880000</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="G9">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="G10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D11">
+        <v>199</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G11">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B70"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -3975,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B27"/>
   <sheetViews>
@@ -4089,168 +4253,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>72000000</v>
-      </c>
-      <c r="C3">
-        <f>B3*2</f>
-        <v>144000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>71</v>
-      </c>
-      <c r="C6">
-        <f>$C$3/(B6+1)</f>
-        <v>2000000</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <f>C6/(D6+1)</f>
-        <v>100000</v>
-      </c>
-      <c r="G6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>71</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C11" si="0">$C$3/(B7+1)</f>
-        <v>2000000</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E11" si="1">C7/(D7+1)</f>
-        <v>80000</v>
-      </c>
-      <c r="G7">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2880000</v>
-      </c>
-      <c r="D8">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-      <c r="G8">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>71</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="D9">
-        <v>49</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="G9">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="G10">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="D11">
-        <v>199</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="G11">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -303,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,14 +316,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -407,6 +401,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -428,10 +433,10 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,6 +827,518 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F463-4F50-8B1C-D2B5E736CDD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ADC!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ADC!$E$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7916666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.791666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.791666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA18-4361-A969-062139FFDA27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ADC!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ADC!$E$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7222222222222219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.722222222222214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA18-4361-A969-062139FFDA27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ADC!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ADC!$E$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6527777777777768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.319444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.652777777777786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA18-4361-A969-062139FFDA27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ADC!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ADC!$E$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.583333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.583333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.58333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA18-4361-A969-062139FFDA27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ADC!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ADC!$E$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7777777777777772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4444444444444438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.44444444444443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA18-4361-A969-062139FFDA27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1570,14 +2087,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>165099</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1887,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L68"/>
+  <dimension ref="B2:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2769,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f t="shared" si="5"/>
         <v>166.66666666666666</v>
       </c>
@@ -2297,7 +2814,7 @@
         <f t="shared" ref="C14" si="6">C$3/B14/1000000</f>
         <v>4.5</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f t="shared" ref="D14" si="7">1/C14*1000</f>
         <v>222.2222222222222</v>
       </c>
@@ -2342,7 +2859,7 @@
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f t="shared" si="5"/>
         <v>444.4444444444444</v>
       </c>
@@ -2412,37 +2929,37 @@
         <f>1/C18*1000</f>
         <v>13.888888888888888</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" ref="E18:L20" si="8">E8*320</f>
-        <v>84.444444444444429</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="19">
+        <f>E7*320</f>
+        <v>42.222222222222214</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" ref="F18:L18" si="8">F7*320</f>
+        <v>46.666666666666657</v>
+      </c>
+      <c r="G18" s="15">
         <f t="shared" si="8"/>
-        <v>93.333333333333314</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="8"/>
-        <v>111.11111111111109</v>
+        <v>55.555555555555543</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="8"/>
-        <v>137.77777777777774</v>
+        <v>68.888888888888872</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="8"/>
-        <v>244.44444444444443</v>
+        <v>122.22222222222221</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="8"/>
-        <v>617.77777777777771</v>
+        <v>308.88888888888886</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="8"/>
-        <v>1684.4444444444443</v>
+        <v>842.22222222222217</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="8"/>
-        <v>5417.7777777777774</v>
+        <v>2708.8888888888887</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -2458,36 +2975,36 @@
         <v>27.777777777777775</v>
       </c>
       <c r="E19" s="13">
-        <f t="shared" si="8"/>
-        <v>168.88888888888886</v>
+        <f t="shared" ref="E19:L26" si="11">E8*320</f>
+        <v>84.444444444444429</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="8"/>
-        <v>186.66666666666663</v>
+        <f t="shared" si="11"/>
+        <v>93.333333333333314</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" si="8"/>
-        <v>222.22222222222217</v>
+        <f t="shared" si="11"/>
+        <v>111.11111111111109</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="8"/>
-        <v>275.55555555555549</v>
+        <f t="shared" si="11"/>
+        <v>137.77777777777774</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="8"/>
-        <v>488.88888888888886</v>
+        <f t="shared" si="11"/>
+        <v>244.44444444444443</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" si="8"/>
-        <v>1235.5555555555554</v>
+        <f t="shared" si="11"/>
+        <v>617.77777777777771</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" si="8"/>
-        <v>3368.8888888888887</v>
+        <f t="shared" si="11"/>
+        <v>1684.4444444444443</v>
       </c>
       <c r="L19" s="15">
-        <f t="shared" si="8"/>
-        <v>10835.555555555555</v>
+        <f t="shared" si="11"/>
+        <v>5417.7777777777774</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -2503,36 +3020,36 @@
         <v>55.55555555555555</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" si="8"/>
-        <v>253.33333333333331</v>
+        <f t="shared" si="11"/>
+        <v>168.88888888888886</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="8"/>
-        <v>280</v>
+        <f t="shared" si="11"/>
+        <v>186.66666666666663</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="8"/>
-        <v>333.33333333333326</v>
+        <f t="shared" si="11"/>
+        <v>222.22222222222217</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="8"/>
-        <v>413.33333333333326</v>
+        <f t="shared" si="11"/>
+        <v>275.55555555555549</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="8"/>
-        <v>733.33333333333326</v>
+        <f t="shared" si="11"/>
+        <v>488.88888888888886</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="8"/>
-        <v>1853.333333333333</v>
+        <f t="shared" si="11"/>
+        <v>1235.5555555555554</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="8"/>
-        <v>5053.333333333333</v>
+        <f t="shared" si="11"/>
+        <v>3368.8888888888887</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="8"/>
-        <v>16253.333333333332</v>
+        <f t="shared" si="11"/>
+        <v>10835.555555555555</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -2548,36 +3065,36 @@
         <v>83.333333333333329</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" ref="E21:L21" si="11">E11*320</f>
-        <v>337.77777777777771</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="11"/>
-        <v>373.33333333333326</v>
+        <f t="shared" si="11"/>
+        <v>253.33333333333331</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="11"/>
+        <v>280</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="11"/>
-        <v>444.44444444444434</v>
+        <v>333.33333333333326</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="11"/>
-        <v>551.11111111111097</v>
+        <v>413.33333333333326</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="11"/>
-        <v>977.77777777777771</v>
+        <v>733.33333333333326</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="11"/>
-        <v>2471.1111111111109</v>
+        <v>1853.333333333333</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="11"/>
-        <v>6737.7777777777774</v>
+        <v>5053.333333333333</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="11"/>
-        <v>21671.111111111109</v>
+        <v>16253.333333333332</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -2593,36 +3110,36 @@
         <v>111.1111111111111</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" ref="E22:L24" si="12">E12*320</f>
-        <v>422.22222222222223</v>
+        <f t="shared" si="11"/>
+        <v>337.77777777777771</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="12"/>
-        <v>466.66666666666663</v>
+        <f t="shared" si="11"/>
+        <v>373.33333333333326</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="12"/>
-        <v>555.55555555555554</v>
+        <f t="shared" si="11"/>
+        <v>444.44444444444434</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="12"/>
-        <v>688.88888888888891</v>
+        <f t="shared" si="11"/>
+        <v>551.11111111111097</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="12"/>
-        <v>1222.2222222222222</v>
+        <f t="shared" si="11"/>
+        <v>977.77777777777771</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="12"/>
-        <v>3088.8888888888887</v>
+        <f t="shared" si="11"/>
+        <v>2471.1111111111109</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="12"/>
-        <v>8422.2222222222226</v>
+        <f t="shared" si="11"/>
+        <v>6737.7777777777774</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="12"/>
-        <v>27088.888888888891</v>
+        <f t="shared" si="11"/>
+        <v>21671.111111111109</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -2630,44 +3147,44 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23" si="13">C$3/B23/1000000</f>
+        <f t="shared" ref="C23" si="12">C$3/B23/1000000</f>
         <v>7.2</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:D25" si="14">1/C23*1000</f>
+        <f t="shared" ref="D23:D26" si="13">1/C23*1000</f>
         <v>138.88888888888889</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="12"/>
-        <v>506.66666666666663</v>
+        <f t="shared" si="11"/>
+        <v>422.22222222222223</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="12"/>
-        <v>560</v>
+        <f t="shared" si="11"/>
+        <v>466.66666666666663</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="12"/>
-        <v>666.66666666666652</v>
+        <f t="shared" si="11"/>
+        <v>555.55555555555554</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="12"/>
-        <v>826.66666666666652</v>
+        <f t="shared" si="11"/>
+        <v>688.88888888888891</v>
       </c>
       <c r="I23" s="15">
-        <f t="shared" si="12"/>
-        <v>1466.6666666666665</v>
+        <f t="shared" si="11"/>
+        <v>1222.2222222222222</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="12"/>
-        <v>3706.6666666666661</v>
+        <f t="shared" si="11"/>
+        <v>3088.8888888888887</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="12"/>
-        <v>10106.666666666666</v>
+        <f t="shared" si="11"/>
+        <v>8422.2222222222226</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" si="12"/>
-        <v>32506.666666666664</v>
+        <f t="shared" si="11"/>
+        <v>27088.888888888891</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -2679,40 +3196,40 @@
         <v>6</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>166.66666666666666</v>
       </c>
       <c r="E24" s="13">
-        <f t="shared" si="12"/>
-        <v>675.55555555555543</v>
+        <f t="shared" si="11"/>
+        <v>506.66666666666663</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="12"/>
-        <v>746.66666666666652</v>
+        <f t="shared" si="11"/>
+        <v>560</v>
       </c>
       <c r="G24" s="15">
-        <f t="shared" si="12"/>
-        <v>888.88888888888869</v>
+        <f t="shared" si="11"/>
+        <v>666.66666666666652</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="12"/>
-        <v>1102.2222222222219</v>
+        <f t="shared" si="11"/>
+        <v>826.66666666666652</v>
       </c>
       <c r="I24" s="15">
-        <f t="shared" si="12"/>
-        <v>1955.5555555555554</v>
+        <f t="shared" si="11"/>
+        <v>1466.6666666666665</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="12"/>
-        <v>4942.2222222222217</v>
+        <f t="shared" si="11"/>
+        <v>3706.6666666666661</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="12"/>
-        <v>13475.555555555555</v>
+        <f t="shared" si="11"/>
+        <v>10106.666666666666</v>
       </c>
       <c r="L24" s="15">
-        <f t="shared" si="12"/>
-        <v>43342.222222222219</v>
+        <f t="shared" si="11"/>
+        <v>32506.666666666664</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -2724,943 +3241,988 @@
         <v>4.5</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D25" si="14">1/C25*1000</f>
         <v>222.2222222222222</v>
       </c>
       <c r="E25" s="13">
-        <f t="shared" ref="E25:L25" si="15">E15*320</f>
+        <f t="shared" si="11"/>
+        <v>675.55555555555543</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="11"/>
+        <v>746.66666666666652</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="11"/>
+        <v>888.88888888888869</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="11"/>
+        <v>1102.2222222222219</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="11"/>
+        <v>1955.5555555555554</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="11"/>
+        <v>4942.2222222222217</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="11"/>
+        <v>13475.555555555555</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="11"/>
+        <v>43342.222222222219</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1">
+        <f>C$3/B26/1000000</f>
+        <v>2.25</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="13"/>
+        <v>444.4444444444444</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="11"/>
         <v>1351.1111111111109</v>
       </c>
-      <c r="F25" s="16">
-        <f t="shared" si="15"/>
+      <c r="F26" s="15">
+        <f t="shared" si="11"/>
         <v>1493.333333333333</v>
       </c>
-      <c r="G25" s="15">
-        <f t="shared" si="15"/>
+      <c r="G26" s="15">
+        <f t="shared" si="11"/>
         <v>1777.7777777777774</v>
       </c>
-      <c r="H25" s="15">
-        <f t="shared" si="15"/>
+      <c r="H26" s="15">
+        <f t="shared" si="11"/>
         <v>2204.4444444444439</v>
       </c>
-      <c r="I25" s="15">
-        <f t="shared" si="15"/>
+      <c r="I26" s="15">
+        <f t="shared" si="11"/>
         <v>3911.1111111111109</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="15"/>
+      <c r="J26" s="15">
+        <f t="shared" si="11"/>
         <v>9884.4444444444434</v>
       </c>
-      <c r="K25" s="15">
-        <f t="shared" si="15"/>
+      <c r="K26" s="15">
+        <f t="shared" si="11"/>
         <v>26951.111111111109</v>
       </c>
-      <c r="L25" s="15">
-        <f t="shared" si="15"/>
+      <c r="L26" s="15">
+        <f t="shared" si="11"/>
         <v>86684.444444444438</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <f>C$3/B28/1000000</f>
-        <v>72</v>
-      </c>
-      <c r="D28" s="4">
-        <f>1/C28*1000</f>
-        <v>13.888888888888888</v>
-      </c>
-      <c r="E28" s="2">
-        <f>1/E18*1000</f>
-        <v>11.842105263157897</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28:L28" si="16">1/F18*1000</f>
-        <v>10.714285714285715</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="16"/>
-        <v>9.0000000000000036</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="16"/>
-        <v>7.2580645161290347</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="16"/>
-        <v>4.0909090909090908</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="16"/>
-        <v>1.6187050359712232</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="16"/>
-        <v>0.59366754617414252</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="16"/>
-        <v>0.18457752255947499</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>2</v>
       </c>
       <c r="C29" s="1">
         <f>C$3/B29/1000000</f>
+        <v>72</v>
+      </c>
+      <c r="D29" s="4">
+        <f>1/C29*1000</f>
+        <v>13.888888888888888</v>
+      </c>
+      <c r="E29" s="2">
+        <f>1/E18*1000</f>
+        <v>23.684210526315795</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29:L29" si="15">1/F18*1000</f>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="15"/>
+        <v>18.000000000000007</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="15"/>
+        <v>14.516129032258069</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="15"/>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="15"/>
+        <v>3.2374100719424463</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="15"/>
+        <v>1.187335092348285</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="15"/>
+        <v>0.36915504511894998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C$3/B30/1000000</f>
         <v>36</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" ref="D29:D31" si="17">1/C29*1000</f>
+      <c r="D30" s="4">
+        <f t="shared" ref="D30:D32" si="16">1/C30*1000</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" ref="E29:L29" si="18">1/E19*1000</f>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:L30" si="17">1/E19*1000</f>
+        <v>11.842105263157897</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="17"/>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="17"/>
+        <v>9.0000000000000036</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="17"/>
+        <v>7.2580645161290347</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="17"/>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="17"/>
+        <v>1.6187050359712232</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="17"/>
+        <v>0.59366754617414252</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="17"/>
+        <v>0.18457752255947499</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C$3/B31/1000000</f>
+        <v>18</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="16"/>
+        <v>55.55555555555555</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:L31" si="18">1/E20*1000</f>
         <v>5.9210526315789487</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F31" s="5">
         <f t="shared" si="18"/>
         <v>5.3571428571428577</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G31" s="5">
         <f t="shared" si="18"/>
         <v>4.5000000000000018</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="18"/>
         <v>3.6290322580645173</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I31" s="5">
         <f t="shared" si="18"/>
         <v>2.0454545454545454</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J31" s="5">
         <f t="shared" si="18"/>
         <v>0.80935251798561159</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="18"/>
         <v>0.29683377308707126</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L31" s="5">
         <f t="shared" si="18"/>
         <v>9.2288761279737494E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1">
-        <f>C$3/B30/1000000</f>
-        <v>18</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="17"/>
-        <v>55.55555555555555</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" ref="E30:L30" si="19">1/E20*1000</f>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32" si="19">C$3/B32/1000000</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="16"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:L32" si="20">1/E21*1000</f>
         <v>3.9473684210526319</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="19"/>
+      <c r="F32" s="5">
+        <f t="shared" si="20"/>
         <v>3.5714285714285712</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="19"/>
+      <c r="G32" s="5">
+        <f t="shared" si="20"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="H30" s="5">
-        <f t="shared" si="19"/>
+      <c r="H32" s="5">
+        <f t="shared" si="20"/>
         <v>2.4193548387096779</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="19"/>
+      <c r="I32" s="5">
+        <f t="shared" si="20"/>
         <v>1.3636363636363638</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" si="19"/>
+      <c r="J32" s="5">
+        <f t="shared" si="20"/>
         <v>0.53956834532374109</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="19"/>
+      <c r="K32" s="5">
+        <f t="shared" si="20"/>
         <v>0.19788918205804751</v>
       </c>
-      <c r="L30" s="5">
-        <f t="shared" si="19"/>
+      <c r="L32" s="5">
+        <f t="shared" si="20"/>
         <v>6.1525840853158334E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" ref="C31" si="20">C$3/B31/1000000</f>
-        <v>12</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="17"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" ref="E31:L31" si="21">1/E21*1000</f>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C$3/B33/1000000</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <f>1/C33*1000</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="E33" s="2">
+        <f>1/E22*1000</f>
         <v>2.9605263157894743</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="21"/>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33:L33" si="21">1/F22*1000</f>
         <v>2.6785714285714288</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G33" s="5">
         <f t="shared" si="21"/>
         <v>2.2500000000000009</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H33" s="5">
         <f t="shared" si="21"/>
         <v>1.8145161290322587</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I33" s="5">
         <f t="shared" si="21"/>
         <v>1.0227272727272727</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J33" s="5">
         <f t="shared" si="21"/>
         <v>0.40467625899280579</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K33" s="5">
         <f t="shared" si="21"/>
         <v>0.14841688654353563</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L33" s="5">
         <f t="shared" si="21"/>
         <v>4.6144380639868747E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1">
-        <f>C$3/B32/1000000</f>
-        <v>9</v>
-      </c>
-      <c r="D32" s="4">
-        <f>1/C32*1000</f>
-        <v>111.1111111111111</v>
-      </c>
-      <c r="E32" s="2">
-        <f>1/E22*1000</f>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <f>C$3/B34/1000000</f>
+        <v>7.2</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34:D36" si="22">1/C34*1000</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" ref="E34:L34" si="23">1/E23*1000</f>
         <v>2.3684210526315792</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" ref="F32:L32" si="22">1/F22*1000</f>
+      <c r="F34" s="5">
+        <f t="shared" si="23"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G34" s="5">
+        <f t="shared" si="23"/>
+        <v>1.8</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="23"/>
+        <v>1.4516129032258063</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="23"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="23"/>
+        <v>0.32374100719424459</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="23"/>
+        <v>0.11873350923482849</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="23"/>
+        <v>3.6915504511895E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C$3/B35/1000000</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="22"/>
-        <v>1.8</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="22"/>
-        <v>1.4516129032258063</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="22"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="22"/>
-        <v>0.32374100719424459</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="22"/>
-        <v>0.11873350923482849</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="22"/>
-        <v>3.6915504511895E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1">
-        <f>C$3/B33/1000000</f>
-        <v>7.2</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" ref="D33:D35" si="23">1/C33*1000</f>
-        <v>138.88888888888889</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" ref="E33:L33" si="24">1/E23*1000</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35:L35" si="24">1/E24*1000</f>
         <v>1.9736842105263159</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F35" s="5">
         <f t="shared" si="24"/>
         <v>1.7857142857142856</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G35" s="5">
         <f t="shared" si="24"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H35" s="5">
         <f t="shared" si="24"/>
         <v>1.209677419354839</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I35" s="5">
         <f t="shared" si="24"/>
         <v>0.68181818181818188</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J35" s="5">
         <f t="shared" si="24"/>
         <v>0.26978417266187055</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K35" s="5">
         <f t="shared" si="24"/>
         <v>9.8944591029023754E-2</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L35" s="5">
         <f t="shared" si="24"/>
         <v>3.0762920426579167E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1">
-        <f>C$3/B34/1000000</f>
-        <v>6</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="23"/>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:L34" si="25">1/E24*1000</f>
-        <v>1.4802631578947372</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="25"/>
-        <v>1.3392857142857144</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="25"/>
-        <v>1.1250000000000004</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="25"/>
-        <v>0.90725806451612934</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="25"/>
-        <v>0.51136363636363635</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="25"/>
-        <v>0.2023381294964029</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" si="25"/>
-        <v>7.4208443271767816E-2</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="25"/>
-        <v>2.3072190319934373E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>16</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" ref="C35" si="26">C$3/B35/1000000</f>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36" si="25">C$3/B36/1000000</f>
         <v>4.5</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" si="23"/>
+      <c r="D36" s="4">
+        <f t="shared" si="22"/>
         <v>222.2222222222222</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" ref="E35:L35" si="27">1/E25*1000</f>
+      <c r="E36" s="2">
+        <f t="shared" ref="E36:L36" si="26">1/E26*1000</f>
         <v>0.74013157894736858</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="27"/>
+      <c r="F36" s="5">
+        <f t="shared" si="26"/>
         <v>0.66964285714285721</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="27"/>
+      <c r="G36" s="5">
+        <f t="shared" si="26"/>
         <v>0.56250000000000022</v>
       </c>
-      <c r="H35" s="5">
-        <f t="shared" si="27"/>
+      <c r="H36" s="5">
+        <f t="shared" si="26"/>
         <v>0.45362903225806467</v>
       </c>
-      <c r="I35" s="5">
-        <f t="shared" si="27"/>
+      <c r="I36" s="5">
+        <f t="shared" si="26"/>
         <v>0.25568181818181818</v>
       </c>
-      <c r="J35" s="5">
-        <f t="shared" si="27"/>
+      <c r="J36" s="5">
+        <f t="shared" si="26"/>
         <v>0.10116906474820145</v>
       </c>
-      <c r="K35" s="5">
-        <f t="shared" si="27"/>
+      <c r="K36" s="5">
+        <f t="shared" si="26"/>
         <v>3.7104221635883908E-2</v>
       </c>
-      <c r="L35" s="5">
-        <f t="shared" si="27"/>
+      <c r="L36" s="5">
+        <f t="shared" si="26"/>
         <v>1.1536095159967187E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
         <v>2</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="16">
         <f>E8</f>
         <v>0.26388888888888884</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F39" s="17">
         <f>E18</f>
-        <v>84.444444444444429</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+        <v>42.222222222222214</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="16">
         <f>E9</f>
         <v>0.52777777777777768</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F40" s="17">
         <f>E19</f>
-        <v>168.88888888888886</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+        <v>84.444444444444429</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>15</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="16">
         <f>F8</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F41" s="17">
         <f>F18</f>
-        <v>93.333333333333314</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+        <v>46.666666666666657</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="16">
         <f>E10</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F42" s="17">
         <f>E20</f>
-        <v>253.33333333333331</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+        <v>168.88888888888886</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>28</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="16">
         <f>G8</f>
         <v>0.34722222222222215</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F43" s="17">
         <f>G18</f>
-        <v>111.11111111111109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+        <v>55.555555555555543</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
         <v>8</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="16">
         <f>E11</f>
         <v>1.0555555555555554</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F44" s="17">
         <f>E21</f>
-        <v>337.77777777777771</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+        <v>253.33333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>15</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="16">
         <f>F9</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F45" s="17">
         <f>F19</f>
-        <v>186.66666666666663</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+        <v>93.333333333333314</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>56</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="16">
         <f>H8</f>
         <v>0.43055555555555547</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F46" s="17">
         <f>H18</f>
-        <v>137.77777777777774</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+        <v>68.888888888888872</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
         <v>6</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>15</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="16">
         <f>F10</f>
         <v>0.875</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F47" s="17">
         <f>F20</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+        <v>186.66666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
         <v>4</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>28</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="16">
         <f>G9</f>
         <v>0.69444444444444431</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F48" s="17">
         <f>G19</f>
-        <v>222.22222222222217</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+        <v>111.11111111111109</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>84</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="16">
         <f>I8</f>
         <v>0.76388888888888884</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F49" s="17">
         <f>I18</f>
-        <v>244.44444444444443</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+        <v>122.22222222222221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
         <v>6</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>28</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="16">
         <f>G10</f>
         <v>1.0416666666666665</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F50" s="17">
         <f>G20</f>
-        <v>333.33333333333326</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+        <v>222.22222222222217</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
         <v>2</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>112</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="16">
         <f>J8</f>
         <v>1.9305555555555554</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F51" s="17">
         <f>J18</f>
-        <v>617.77777777777771</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+        <v>308.88888888888886</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
         <v>4</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>56</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="16">
         <f>H9</f>
         <v>0.86111111111111094</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F52" s="17">
         <f>H19</f>
-        <v>275.55555555555549</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+        <v>137.77777777777774</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
         <v>8</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>28</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="16">
         <f>G11</f>
         <v>1.3888888888888886</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F53" s="17">
         <f>G21</f>
-        <v>444.44444444444434</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+        <v>333.33333333333326</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>144</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="16">
         <f>K8</f>
         <v>5.2638888888888884</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F54" s="17">
         <f>K18</f>
-        <v>1684.4444444444443</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+        <v>842.22222222222217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
         <v>4</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>84</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="16">
         <f>I9</f>
         <v>1.5277777777777777</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F55" s="17">
         <f>I19</f>
-        <v>488.88888888888886</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+        <v>244.44444444444443</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
         <v>6</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>56</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="16">
         <f>H10</f>
         <v>1.2916666666666665</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F56" s="17">
         <f>H20</f>
-        <v>413.33333333333326</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+        <v>275.55555555555549</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
         <v>4</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>112</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="16">
         <f>J9</f>
         <v>3.8611111111111107</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F57" s="17">
         <f>J19</f>
-        <v>1235.5555555555554</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+        <v>617.77777777777771</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="12">
         <v>8</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>56</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="16">
         <f>H11</f>
         <v>1.7222222222222219</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F58" s="17">
         <f>H21</f>
-        <v>551.11111111111097</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+        <v>413.33333333333326</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="12">
         <v>6</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>84</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="16">
         <f>I10</f>
         <v>2.2916666666666665</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F59" s="17">
         <f>I20</f>
-        <v>733.33333333333326</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+        <v>488.88888888888886</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>144</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="16">
         <f>K9</f>
         <v>10.527777777777777</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F60" s="17">
         <f>K19</f>
-        <v>3368.8888888888887</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+        <v>1684.4444444444443</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="12">
         <v>6</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>112</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="16">
         <f>J10</f>
         <v>5.7916666666666661</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F61" s="17">
         <f>J20</f>
-        <v>1853.333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+        <v>1235.5555555555554</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="12">
         <v>8</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>84</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="16">
         <f>I11</f>
         <v>3.0555555555555554</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F62" s="17">
         <f>I21</f>
-        <v>977.77777777777771</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+        <v>733.33333333333326</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
         <v>6</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>144</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="16">
         <f>K10</f>
         <v>15.791666666666666</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="17">
         <f>K20</f>
-        <v>5053.333333333333</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+        <v>3368.8888888888887</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>112</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="16">
         <f>J11</f>
         <v>7.7222222222222214</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F64" s="17">
         <f>J21</f>
-        <v>2471.1111111111109</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+        <v>1853.333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="12">
         <v>2</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>480</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="16">
         <f>L8</f>
         <v>16.930555555555554</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F65" s="17">
         <f>L18</f>
-        <v>5417.7777777777774</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+        <v>2708.8888888888887</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="12">
         <v>8</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>144</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="16">
         <f>K11</f>
         <v>21.055555555555554</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F66" s="17">
         <f>K21</f>
-        <v>6737.7777777777774</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+        <v>5053.333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>480</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="16">
         <f>L9</f>
         <v>33.861111111111107</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F67" s="17">
         <f>L19</f>
-        <v>10835.555555555555</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+        <v>5417.7777777777774</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>480</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="16">
         <f>L10</f>
         <v>50.791666666666664</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F68" s="17">
         <f>L20</f>
-        <v>16253.333333333332</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+        <v>10835.555555555555</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
         <v>8</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>480</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="16">
         <f>L11</f>
         <v>67.722222222222214</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F69" s="17">
         <f>L21</f>
-        <v>21671.111111111109</v>
+        <v>16253.333333333332</v>
       </c>
     </row>
   </sheetData>
@@ -3838,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="1" r:id="rId1"/>
     <sheet name="TIM Generator" sheetId="4" r:id="rId2"/>
-    <sheet name="Java processing" sheetId="2" r:id="rId3"/>
-    <sheet name="Triangle" sheetId="3" r:id="rId4"/>
+    <sheet name="java ADC 303 times" sheetId="5" r:id="rId3"/>
+    <sheet name="Java processing" sheetId="2" r:id="rId4"/>
+    <sheet name="Triangle" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="159">
   <si>
     <t>SysCLK</t>
   </si>
@@ -284,16 +285,222 @@
   </si>
   <si>
     <t>for STM32F3 Max ADCCLK = 72 MHz</t>
+  </si>
+  <si>
+    <t>import java.util.Arrays;</t>
+  </si>
+  <si>
+    <t>import java.util.Comparator;</t>
+  </si>
+  <si>
+    <t>public class adc {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static String[] str = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "1 1.5    0.13      42.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "2 1.5    0.26      84.44",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "4 1.5    0.53      168.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "6 1.5    0.79      253.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "8 1.5    1.06      337.78",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "10    1.5    1.32      422.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "12    1.5    1.58      506.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "16    1.5    2.11      675.56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "32    1.5    4.22      1351.11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "1 2.5    0.15      46.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "2 2.5    0.29      93.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "4 2.5    0.58      186.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "6 2.5    0.88      280.00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "8 2.5    1.17      373.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "10    2.5    1.46      466.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "12    2.5    1.75      560.00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "16    2.5    2.33      746.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "32    2.5    4.67      1493.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "1 4.5    0.17      55.56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "2 4.5    0.35      111.11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "4 4.5    0.69      222.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "6 4.5    1.04      333.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "8 4.5    1.39      444.44",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "10    4.5    1.74      555.56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "12    4.5    2.08      666.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "16    4.5    2.78      888.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "32    4.5    5.56      1777.78",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "1 7.5    0.22      68.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "2 7.5    0.43      137.78",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "4 7.5    0.86      275.56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "6 7.5    1.29      413.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "8 7.5    1.72      551.11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "10    7.5    2.15      688.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "12    7.5    2.58      826.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "16    7.5    3.44      1102.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "32    7.5    6.89      2204.44",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "1 19.5   0.38      122.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "2 19.5   0.76      244.44",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "4 19.5   1.53      488.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "6 19.5   2.29      733.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "8 19.5   3.06      977.78",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "10    19.5   3.82      1222.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "12    19.5   4.58      1466.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "16    19.5   6.11      1955.56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "32    19.5   12.22     3911.11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "1 61.5   0.97      308.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "2 61.5   1.93      617.78",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "4 61.5   3.86      1235.56",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "6 61.5   5.79      1853.33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "8 61.5   7.72      2471.11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "10    61.5   9.65      3088.89",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "12    61.5   11.58     3706.67",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "16    61.5   15.44     4942.22",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "32    61.5   30.89     9884.44"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static void printADC() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Comparator&lt;String[]&gt; comparator = Comparator.comparing(s -&gt; Double.parseDouble(s[2]));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Arrays.stream(str).map(str -&gt; str.split("\\s+")).sorted(comparator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .forEach(q1 -&gt; System.out.println("{" + mapPre(q1[0]) + ", \t" + mapSpl(q1[1]) + ", \t" + q1[2] + ", \t" + q1[3] + "},"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static String mapPre(String num) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return "RCC_CFGR2_ADCPRE12_DIV" + num;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static String mapSpl(String spl) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String num = spl.split("\\.")[0];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if( num.equals("1"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return "ADC_SAMPLETIME_1CYCLE_5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return String.format("ADC_SAMPLETIME_%sCYCLES_5", num);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -412,11 +619,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -433,10 +649,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2404,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L69"/>
+  <dimension ref="B2:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2984,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <f t="shared" si="5"/>
         <v>166.66666666666666</v>
       </c>
@@ -2814,7 +3029,7 @@
         <f t="shared" ref="C14" si="6">C$3/B14/1000000</f>
         <v>4.5</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <f t="shared" ref="D14" si="7">1/C14*1000</f>
         <v>222.2222222222222</v>
       </c>
@@ -2859,7 +3074,7 @@
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <f t="shared" si="5"/>
         <v>444.4444444444444</v>
       </c>
@@ -2929,7 +3144,7 @@
         <f>1/C18*1000</f>
         <v>13.888888888888888</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <f>E7*320</f>
         <v>42.222222222222214</v>
       </c>
@@ -3730,499 +3945,921 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>$E$6</f>
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="5">
+        <f>E7</f>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="F39" s="5">
+        <f>D39*320</f>
+        <v>42.222222222222214</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="16">
-        <f>E8</f>
+      <c r="C40">
+        <f t="shared" ref="C40:C48" si="27">$E$6</f>
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40:D47" si="28">E8</f>
         <v>0.26388888888888884</v>
       </c>
-      <c r="F39" s="17">
-        <f>E18</f>
-        <v>42.222222222222214</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="F40" s="5">
+        <f t="shared" ref="F40:F92" si="29">D40*320</f>
+        <v>84.444444444444429</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" s="16">
-        <f>E9</f>
+      <c r="C41">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="28"/>
         <v>0.52777777777777768</v>
       </c>
-      <c r="F40" s="17">
-        <f>E19</f>
-        <v>84.444444444444429</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="F41" s="5">
+        <f t="shared" si="29"/>
+        <v>168.88888888888886</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="28"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="29"/>
+        <v>253.33333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="28"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="29"/>
+        <v>337.77777777777771</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="28"/>
+        <v>1.3194444444444444</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="29"/>
+        <v>422.22222222222223</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="28"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="29"/>
+        <v>506.66666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="28"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="29"/>
+        <v>675.55555555555543</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="28"/>
+        <v>4.2222222222222214</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="29"/>
+        <v>1351.1111111111109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f>$F$6</f>
+        <v>2.5</v>
+      </c>
+      <c r="D48" s="5">
+        <f>F7</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="29"/>
+        <v>46.666666666666657</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41" s="16">
-        <f>F8</f>
+      <c r="C49">
+        <f t="shared" ref="C49:C56" si="30">$F$6</f>
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" ref="D49:D56" si="31">F8</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="F41" s="17">
-        <f>F18</f>
-        <v>46.666666666666657</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="F49" s="5">
+        <f t="shared" si="29"/>
+        <v>93.333333333333314</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="31"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="29"/>
+        <v>186.66666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" s="16">
-        <f>E10</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F42" s="17">
-        <f>E20</f>
-        <v>168.88888888888886</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="C51">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="31"/>
+        <v>0.875</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="29"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="31"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="29"/>
+        <v>373.33333333333326</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="31"/>
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="29"/>
+        <v>466.66666666666663</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="31"/>
+        <v>1.75</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="29"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="31"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="29"/>
+        <v>746.66666666666652</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="31"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="29"/>
+        <v>1493.333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f>$G$6</f>
+        <v>4.5</v>
+      </c>
+      <c r="D57" s="5">
+        <f>G7</f>
+        <v>0.17361111111111108</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="29"/>
+        <v>55.555555555555543</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>2</v>
       </c>
-      <c r="C43">
-        <v>28</v>
-      </c>
-      <c r="D43" s="16">
-        <f>G8</f>
+      <c r="C58">
+        <f t="shared" ref="C58:C65" si="32">$G$6</f>
+        <v>4.5</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" ref="D58:D66" si="33">G8</f>
         <v>0.34722222222222215</v>
       </c>
-      <c r="F43" s="17">
-        <f>G18</f>
-        <v>55.555555555555543</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="F58" s="5">
+        <f t="shared" si="29"/>
+        <v>111.11111111111109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="33"/>
+        <v>0.69444444444444431</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="29"/>
+        <v>222.22222222222217</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="33"/>
+        <v>1.0416666666666665</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="29"/>
+        <v>333.33333333333326</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" s="16">
-        <f>E11</f>
-        <v>1.0555555555555554</v>
-      </c>
-      <c r="F44" s="17">
-        <f>E21</f>
-        <v>253.33333333333331</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="C61">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="33"/>
+        <v>1.3888888888888886</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="29"/>
+        <v>444.44444444444434</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="33"/>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="29"/>
+        <v>555.55555555555554</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="33"/>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="29"/>
+        <v>666.66666666666652</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="33"/>
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="F64" s="5">
+        <f>D64*320</f>
+        <v>888.88888888888869</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="33"/>
+        <v>5.5555555555555545</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="29"/>
+        <v>1777.7777777777774</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f>$H$6</f>
+        <v>7.5</v>
+      </c>
+      <c r="D66" s="5">
+        <f>H7</f>
+        <v>0.21527777777777773</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="29"/>
+        <v>68.888888888888872</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C75" si="34">$H$6</f>
+        <v>7.5</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:D75" si="35">H8</f>
+        <v>0.43055555555555547</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="29"/>
+        <v>137.77777777777774</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>4</v>
       </c>
-      <c r="C45">
-        <v>15</v>
-      </c>
-      <c r="D45" s="16">
-        <f>F9</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="F45" s="17">
-        <f>F19</f>
-        <v>93.333333333333314</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="C68">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="35"/>
+        <v>0.86111111111111094</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="29"/>
+        <v>275.55555555555549</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="35"/>
+        <v>1.2916666666666665</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="29"/>
+        <v>413.33333333333326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="35"/>
+        <v>1.7222222222222219</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="29"/>
+        <v>551.11111111111097</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="35"/>
+        <v>2.1527777777777777</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="29"/>
+        <v>688.88888888888891</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="35"/>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="29"/>
+        <v>826.66666666666652</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="35"/>
+        <v>3.4444444444444438</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="29"/>
+        <v>1102.2222222222219</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>32</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="35"/>
+        <v>6.8888888888888875</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="29"/>
+        <v>2204.4444444444439</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <f>$I$6</f>
+        <v>19.5</v>
+      </c>
+      <c r="D75" s="5">
+        <f>I7</f>
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="29"/>
+        <v>122.22222222222221</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>2</v>
       </c>
-      <c r="C46">
-        <v>56</v>
-      </c>
-      <c r="D46" s="16">
-        <f>H8</f>
-        <v>0.43055555555555547</v>
-      </c>
-      <c r="F46" s="17">
-        <f>H18</f>
-        <v>68.888888888888872</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="C76">
+        <f t="shared" ref="C76:C84" si="36">$I$6</f>
+        <v>19.5</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" ref="D76:D84" si="37">I8</f>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="29"/>
+        <v>244.44444444444443</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="29"/>
+        <v>488.88888888888886</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>6</v>
       </c>
-      <c r="C47">
-        <v>15</v>
-      </c>
-      <c r="D47" s="16">
-        <f>F10</f>
-        <v>0.875</v>
-      </c>
-      <c r="F47" s="17">
-        <f>F20</f>
-        <v>186.66666666666663</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="C78">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="37"/>
+        <v>2.2916666666666665</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="29"/>
+        <v>733.33333333333326</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="37"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="29"/>
+        <v>977.77777777777771</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="37"/>
+        <v>3.8194444444444442</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="29"/>
+        <v>1222.2222222222222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="37"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="29"/>
+        <v>1466.6666666666665</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="37"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="29"/>
+        <v>1955.5555555555554</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="36"/>
+        <v>19.5</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="37"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="29"/>
+        <v>3911.1111111111109</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <f>$J$6</f>
+        <v>61.5</v>
+      </c>
+      <c r="D84" s="5">
+        <f>J7</f>
+        <v>0.96527777777777768</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="29"/>
+        <v>308.88888888888886</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:C92" si="38">$J$6</f>
+        <v>61.5</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" ref="D85:D92" si="39">J8</f>
+        <v>1.9305555555555554</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="29"/>
+        <v>617.77777777777771</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>28</v>
-      </c>
-      <c r="D48" s="16">
-        <f>G9</f>
-        <v>0.69444444444444431</v>
-      </c>
-      <c r="F48" s="17">
-        <f>G19</f>
-        <v>111.11111111111109</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>84</v>
-      </c>
-      <c r="D49" s="16">
-        <f>I8</f>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="F49" s="17">
-        <f>I18</f>
-        <v>122.22222222222221</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="C86">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="39"/>
+        <v>3.8611111111111107</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="29"/>
+        <v>1235.5555555555554</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>6</v>
       </c>
-      <c r="C50">
-        <v>28</v>
-      </c>
-      <c r="D50" s="16">
-        <f>G10</f>
-        <v>1.0416666666666665</v>
-      </c>
-      <c r="F50" s="17">
-        <f>G20</f>
-        <v>222.22222222222217</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>112</v>
-      </c>
-      <c r="D51" s="16">
-        <f>J8</f>
-        <v>1.9305555555555554</v>
-      </c>
-      <c r="F51" s="17">
-        <f>J18</f>
-        <v>308.88888888888886</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>56</v>
-      </c>
-      <c r="D52" s="16">
-        <f>H9</f>
-        <v>0.86111111111111094</v>
-      </c>
-      <c r="F52" s="17">
-        <f>H19</f>
-        <v>137.77777777777774</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="C87">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="39"/>
+        <v>5.7916666666666661</v>
+      </c>
+      <c r="F87" s="5">
+        <f>D87*320</f>
+        <v>1853.333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>8</v>
       </c>
-      <c r="C53">
-        <v>28</v>
-      </c>
-      <c r="D53" s="16">
-        <f>G11</f>
-        <v>1.3888888888888886</v>
-      </c>
-      <c r="F53" s="17">
-        <f>G21</f>
-        <v>333.33333333333326</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>144</v>
-      </c>
-      <c r="D54" s="16">
-        <f>K8</f>
-        <v>5.2638888888888884</v>
-      </c>
-      <c r="F54" s="17">
-        <f>K18</f>
-        <v>842.22222222222217</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>84</v>
-      </c>
-      <c r="D55" s="16">
-        <f>I9</f>
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="F55" s="17">
-        <f>I19</f>
-        <v>244.44444444444443</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>56</v>
-      </c>
-      <c r="D56" s="16">
-        <f>H10</f>
-        <v>1.2916666666666665</v>
-      </c>
-      <c r="F56" s="17">
-        <f>H20</f>
-        <v>275.55555555555549</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>112</v>
-      </c>
-      <c r="D57" s="16">
-        <f>J9</f>
-        <v>3.8611111111111107</v>
-      </c>
-      <c r="F57" s="17">
-        <f>J19</f>
-        <v>617.77777777777771</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>56</v>
-      </c>
-      <c r="D58" s="16">
-        <f>H11</f>
-        <v>1.7222222222222219</v>
-      </c>
-      <c r="F58" s="17">
-        <f>H21</f>
-        <v>413.33333333333326</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>84</v>
-      </c>
-      <c r="D59" s="16">
-        <f>I10</f>
-        <v>2.2916666666666665</v>
-      </c>
-      <c r="F59" s="17">
-        <f>I20</f>
-        <v>488.88888888888886</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>144</v>
-      </c>
-      <c r="D60" s="16">
-        <f>K9</f>
-        <v>10.527777777777777</v>
-      </c>
-      <c r="F60" s="17">
-        <f>K19</f>
-        <v>1684.4444444444443</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
-        <v>6</v>
-      </c>
-      <c r="C61">
-        <v>112</v>
-      </c>
-      <c r="D61" s="16">
-        <f>J10</f>
-        <v>5.7916666666666661</v>
-      </c>
-      <c r="F61" s="17">
-        <f>J20</f>
-        <v>1235.5555555555554</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>84</v>
-      </c>
-      <c r="D62" s="16">
-        <f>I11</f>
-        <v>3.0555555555555554</v>
-      </c>
-      <c r="F62" s="17">
-        <f>I21</f>
-        <v>733.33333333333326</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>144</v>
-      </c>
-      <c r="D63" s="16">
-        <f>K10</f>
-        <v>15.791666666666666</v>
-      </c>
-      <c r="F63" s="17">
-        <f>K20</f>
-        <v>3368.8888888888887</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>112</v>
-      </c>
-      <c r="D64" s="16">
-        <f>J11</f>
+      <c r="C88">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="39"/>
         <v>7.7222222222222214</v>
       </c>
-      <c r="F64" s="17">
-        <f>J21</f>
-        <v>1853.333333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>480</v>
-      </c>
-      <c r="D65" s="16">
-        <f>L8</f>
-        <v>16.930555555555554</v>
-      </c>
-      <c r="F65" s="17">
-        <f>L18</f>
-        <v>2708.8888888888887</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
-        <v>8</v>
-      </c>
-      <c r="C66">
-        <v>144</v>
-      </c>
-      <c r="D66" s="16">
-        <f>K11</f>
-        <v>21.055555555555554</v>
-      </c>
-      <c r="F66" s="17">
-        <f>K21</f>
-        <v>5053.333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>480</v>
-      </c>
-      <c r="D67" s="16">
-        <f>L9</f>
-        <v>33.861111111111107</v>
-      </c>
-      <c r="F67" s="17">
-        <f>L19</f>
-        <v>5417.7777777777774</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>480</v>
-      </c>
-      <c r="D68" s="16">
-        <f>L10</f>
-        <v>50.791666666666664</v>
-      </c>
-      <c r="F68" s="17">
-        <f>L20</f>
-        <v>10835.555555555555</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>480</v>
-      </c>
-      <c r="D69" s="16">
-        <f>L11</f>
-        <v>67.722222222222214</v>
-      </c>
-      <c r="F69" s="17">
-        <f>L21</f>
-        <v>16253.333333333332</v>
+      <c r="F88" s="5">
+        <f t="shared" si="29"/>
+        <v>2471.1111111111109</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="39"/>
+        <v>9.6527777777777768</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" si="29"/>
+        <v>3088.8888888888887</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="39"/>
+        <v>11.583333333333332</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" si="29"/>
+        <v>3706.6666666666661</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="39"/>
+        <v>15.444444444444443</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" si="29"/>
+        <v>4942.2222222222217</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>32</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="38"/>
+        <v>61.5</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="39"/>
+        <v>30.888888888888886</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="29"/>
+        <v>9884.4444444444434</v>
       </c>
     </row>
   </sheetData>
@@ -4234,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,6 +5028,128 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <f>$C$3/(B13+1)</f>
+        <v>8000000</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f>C13/(D13+1)</f>
+        <v>1000000</v>
+      </c>
+      <c r="G13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C19" si="2">$C$3/(B14+1)</f>
+        <v>8000000</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E19" si="3">C14/(D14+1)</f>
+        <v>800000</v>
+      </c>
+      <c r="G14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>600000</v>
+      </c>
+      <c r="G15">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8000000</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="G16">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>8000000</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="G17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>8000000</v>
+      </c>
+      <c r="D18">
+        <v>79</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="G18">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4398,10 +5157,395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,7 +5845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B27"/>
   <sheetViews>

--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="516" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="java ADC 303 times" sheetId="5" r:id="rId3"/>
     <sheet name="Java processing" sheetId="2" r:id="rId4"/>
     <sheet name="Triangle" sheetId="3" r:id="rId5"/>
+    <sheet name="OA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
   <si>
     <t>SysCLK</t>
   </si>
@@ -495,6 +496,30 @@
   </si>
   <si>
     <t xml:space="preserve">        return String.format("ADC_SAMPLETIME_%sCYCLES_5", num);</t>
+  </si>
+  <si>
+    <t>Uout</t>
+  </si>
+  <si>
+    <t>Uin</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>R-dev</t>
+  </si>
+  <si>
+    <t>OA non inv</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -709,7 +734,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1687,7 +1711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2332,6 +2355,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="581025"/>
+          <a:ext cx="3581900" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3966,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C48" si="27">$E$6</f>
+        <f t="shared" ref="C40:C47" si="27">$E$6</f>
         <v>1.5</v>
       </c>
       <c r="D40" s="5">
@@ -4276,7 +4348,7 @@
         <v>4.5</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" ref="D58:D66" si="33">G8</f>
+        <f t="shared" ref="D58:D65" si="33">G8</f>
         <v>0.34722222222222215</v>
       </c>
       <c r="F58" s="5">
@@ -4425,11 +4497,11 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C75" si="34">$H$6</f>
+        <f t="shared" ref="C67:C74" si="34">$H$6</f>
         <v>7.5</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D75" si="35">H8</f>
+        <f t="shared" ref="D67:D74" si="35">H8</f>
         <v>0.43055555555555547</v>
       </c>
       <c r="F67" s="5">
@@ -4578,11 +4650,11 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:C84" si="36">$I$6</f>
+        <f t="shared" ref="C76:C83" si="36">$I$6</f>
         <v>19.5</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" ref="D76:D84" si="37">I8</f>
+        <f t="shared" ref="D76:D83" si="37">I8</f>
         <v>0.76388888888888884</v>
       </c>
       <c r="F76" s="5">
@@ -4873,7 +4945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5060,14 +5132,14 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C19" si="2">$C$3/(B14+1)</f>
+        <f t="shared" ref="C14:C18" si="2">$C$3/(B14+1)</f>
         <v>8000000</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E19" si="3">C14/(D14+1)</f>
+        <f t="shared" ref="E14:E18" si="3">C14/(D14+1)</f>
         <v>800000</v>
       </c>
       <c r="G14">
@@ -5959,4 +6031,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4">
+        <v>680</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <f>(C4+C5)/C5</f>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6">
+        <f>1+F5/F4</f>
+        <v>3.9333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8">
+        <f>C7/C6</f>
+        <v>0.24444444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10">
+        <f>C4</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <f>(C10+C11)/C11</f>
+        <v>40.080459770114942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -2401,6 +2401,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="2895600"/>
+          <a:ext cx="4676190" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6038,7 +6076,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t>SysCLK</t>
   </si>
@@ -520,16 +520,26 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>OA inv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -657,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -677,6 +687,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,7 +1788,371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> gain</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OA!$P$13:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0813008130081301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1769911504424779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29126213592233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4301075268817205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6024096385542168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8219178082191783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5094339622641511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0303030303030303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-4E5C-4BFB-91C5-BA5877BC544B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="437989784"/>
+        <c:axId val="437984864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437989784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437984864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437984864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437989784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2320,6 +2695,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2403,16 +3294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28362</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>599490</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2429,7 +3320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="2895600"/>
+          <a:off x="8115300" y="257175"/>
           <a:ext cx="4676190" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2437,6 +3328,74 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>456783</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="3276600"/>
+          <a:ext cx="3333333" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6073,15 +7032,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>164</v>
       </c>
@@ -6089,68 +7048,83 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>161</v>
       </c>
       <c r="C4">
         <v>680</v>
       </c>
+      <c r="D4" s="9"/>
       <c r="E4" t="s">
         <v>161</v>
       </c>
       <c r="F4">
+        <v>3.3</v>
+      </c>
+      <c r="G4" s="19">
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>162</v>
       </c>
       <c r="C5">
-        <v>220</v>
-      </c>
+        <f>C11+150+56</f>
+        <v>223.4</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" t="s">
         <v>162</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>163</v>
       </c>
       <c r="C6">
         <f>(C4+C5)/C5</f>
-        <v>4.0909090909090908</v>
-      </c>
+        <v>4.0438675022381378</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" t="s">
         <v>166</v>
       </c>
       <c r="F6">
         <f>1+F5/F4</f>
-        <v>3.9333333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>4.0303030303030303</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>160</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>159</v>
       </c>
       <c r="C8">
         <f>C7/C6</f>
-        <v>0.24444444444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.24728802302413105</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>161</v>
       </c>
@@ -6158,16 +7132,19 @@
         <f>C4</f>
         <v>680</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>162</v>
       </c>
       <c r="C11">
+        <f>8.2+8.2+1</f>
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>163</v>
       </c>
@@ -6175,9 +7152,132 @@
         <f>(C10+C11)/C11</f>
         <v>40.080459770114942</v>
       </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>1+(O13/(10-O13+3.3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P23" si="0">1+(O14/(10-O14+3.3))</f>
+        <v>1.0813008130081301</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1.1769911504424779</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1.29126213592233</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1.4301075268817205</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1.6024096385542168</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1.8219178082191783</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21">
+        <f>F20/F19</f>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>2.5094339622641511</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>3.0930232558139537</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>4.0303030303030303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="516" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="1" r:id="rId1"/>
@@ -745,6 +745,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -847,28 +848,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.13194444444444442</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14583333333333331</c:v>
+                  <c:v>0.15277777777777776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17361111111111108</c:v>
+                  <c:v>0.18055555555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21527777777777773</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38194444444444442</c:v>
+                  <c:v>0.38888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96527777777777768</c:v>
+                  <c:v>0.97222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6319444444444442</c:v>
+                  <c:v>2.6388888888888888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4652777777777768</c:v>
+                  <c:v>8.4722222222222214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,28 +948,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.26388888888888884</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29166666666666663</c:v>
+                  <c:v>0.30555555555555552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34722222222222215</c:v>
+                  <c:v>0.3611111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43055555555555547</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76388888888888884</c:v>
+                  <c:v>0.77777777777777768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9305555555555554</c:v>
+                  <c:v>1.9444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2638888888888884</c:v>
+                  <c:v>5.2777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.930555555555554</c:v>
+                  <c:v>16.944444444444443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,28 +1048,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.52777777777777768</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58333333333333326</c:v>
+                  <c:v>0.61111111111111105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69444444444444431</c:v>
+                  <c:v>0.72222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86111111111111094</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5277777777777777</c:v>
+                  <c:v>1.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8611111111111107</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.527777777777777</c:v>
+                  <c:v>10.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.861111111111107</c:v>
+                  <c:v>33.888888888888886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,28 +1148,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.79166666666666663</c:v>
+                  <c:v>0.83333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0416666666666665</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2916666666666665</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2916666666666665</c:v>
+                  <c:v>2.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7916666666666661</c:v>
+                  <c:v>5.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.791666666666666</c:v>
+                  <c:v>15.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.791666666666664</c:v>
+                  <c:v>50.833333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,28 +1248,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0555555555555554</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1666666666666665</c:v>
+                  <c:v>1.2222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3888888888888886</c:v>
+                  <c:v>1.4444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7222222222222219</c:v>
+                  <c:v>1.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0555555555555554</c:v>
+                  <c:v>3.1111111111111107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7222222222222214</c:v>
+                  <c:v>7.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.055555555555554</c:v>
+                  <c:v>21.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.722222222222214</c:v>
+                  <c:v>67.777777777777771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,28 +1348,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.3194444444444444</c:v>
+                  <c:v>1.3888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4583333333333333</c:v>
+                  <c:v>1.5277777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7361111111111112</c:v>
+                  <c:v>1.8055555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1527777777777777</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8194444444444442</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6527777777777768</c:v>
+                  <c:v>9.7222222222222232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.319444444444446</c:v>
+                  <c:v>26.388888888888886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.652777777777786</c:v>
+                  <c:v>84.722222222222214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,28 +1454,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.5833333333333333</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.083333333333333</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.583333333333333</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.583333333333333</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.583333333333332</c:v>
+                  <c:v>11.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.583333333333332</c:v>
+                  <c:v>31.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.58333333333333</c:v>
+                  <c:v>101.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,28 +1560,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.1111111111111107</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.333333333333333</c:v>
+                  <c:v>2.4444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7777777777777772</c:v>
+                  <c:v>2.8888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4444444444444438</c:v>
+                  <c:v>3.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1111111111111107</c:v>
+                  <c:v>6.2222222222222214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.444444444444443</c:v>
+                  <c:v>15.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.111111111111107</c:v>
+                  <c:v>42.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.44444444444443</c:v>
+                  <c:v>135.55555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,6 +1723,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3690,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,6 +3701,7 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3727,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -3789,35 +3792,35 @@
       </c>
       <c r="E7" s="11">
         <f>(E$6+$C$4)*$D7/1000</f>
-        <v>0.13194444444444442</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ref="F7:L8" si="0">(F$6+$C$4)*$D7/1000</f>
-        <v>0.14583333333333331</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="G7" s="3">
         <f>(G$6+$C$4)*$D7/1000</f>
-        <v>0.17361111111111108</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>0.21527777777777773</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>0.38194444444444442</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>0.96527777777777768</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>2.6319444444444442</v>
+        <v>2.6388888888888888</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>8.4652777777777768</v>
+        <v>8.4722222222222214</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -3834,35 +3837,35 @@
       </c>
       <c r="E8" s="10">
         <f>(E$6+$C$4)*$D8/1000</f>
-        <v>0.26388888888888884</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="G8" s="4">
         <f>(G$6+$C$4)*$D8/1000</f>
-        <v>0.34722222222222215</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>0.43055555555555547</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>0.76388888888888884</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>1.9305555555555554</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>5.2638888888888884</v>
+        <v>5.2777777777777777</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>16.930555555555554</v>
+        <v>16.944444444444443</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -3879,35 +3882,35 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ref="E9:L15" si="3">(E$6+$C$4)*$D9/1000</f>
-        <v>0.52777777777777768</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333333326</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>0.69444444444444431</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>0.86111111111111094</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>1.5277777777777777</v>
+        <v>1.5555555555555554</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>3.8611111111111107</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="3"/>
-        <v>10.527777777777777</v>
+        <v>10.555555555555555</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="3"/>
-        <v>33.861111111111107</v>
+        <v>33.888888888888886</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -3924,35 +3927,35 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>1.2916666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>2.2916666666666665</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>5.7916666666666661</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>15.791666666666666</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>50.791666666666664</v>
+        <v>50.833333333333329</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -3969,35 +3972,35 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>1.0555555555555554</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>1.1666666666666665</v>
+        <v>1.2222222222222221</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>1.3888888888888886</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>1.7222222222222219</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="3"/>
-        <v>3.0555555555555554</v>
+        <v>3.1111111111111107</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>7.7222222222222214</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="3"/>
-        <v>21.055555555555554</v>
+        <v>21.111111111111111</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="3"/>
-        <v>67.722222222222214</v>
+        <v>67.777777777777771</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -4014,35 +4017,35 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>1.3194444444444444</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
-        <v>1.4583333333333333</v>
+        <v>1.5277777777777779</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>1.7361111111111112</v>
+        <v>1.8055555555555554</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
-        <v>2.1527777777777777</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="3"/>
-        <v>3.8194444444444442</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="3"/>
-        <v>9.6527777777777768</v>
+        <v>9.7222222222222232</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="3"/>
-        <v>26.319444444444446</v>
+        <v>26.388888888888886</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="3"/>
-        <v>84.652777777777786</v>
+        <v>84.722222222222214</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -4059,35 +4062,35 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="3"/>
-        <v>1.5833333333333333</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>2.083333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>2.583333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="3"/>
-        <v>4.583333333333333</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>11.583333333333332</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="3"/>
-        <v>31.583333333333332</v>
+        <v>31.666666666666664</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="3"/>
-        <v>101.58333333333333</v>
+        <v>101.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -4104,35 +4107,35 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="3"/>
-        <v>2.1111111111111107</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="3"/>
-        <v>2.333333333333333</v>
+        <v>2.4444444444444442</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>2.7777777777777772</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>3.4444444444444438</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>6.1111111111111107</v>
+        <v>6.2222222222222214</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>15.444444444444443</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>42.111111111111107</v>
+        <v>42.222222222222221</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>135.44444444444443</v>
+        <v>135.55555555555554</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -4149,35 +4152,35 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" si="3"/>
-        <v>4.2222222222222214</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="3"/>
-        <v>4.6666666666666661</v>
+        <v>4.8888888888888884</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>5.5555555555555545</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="3"/>
-        <v>6.8888888888888875</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="3"/>
-        <v>12.222222222222221</v>
+        <v>12.444444444444443</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>30.888888888888886</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="3"/>
-        <v>84.222222222222214</v>
+        <v>84.444444444444443</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="3"/>
-        <v>270.88888888888886</v>
+        <v>271.11111111111109</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4215,35 +4218,35 @@
       </c>
       <c r="E18" s="17">
         <f>E7*320</f>
-        <v>42.222222222222214</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" ref="F18:L18" si="8">F7*320</f>
-        <v>46.666666666666657</v>
+        <v>48.888888888888886</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="8"/>
-        <v>55.555555555555543</v>
+        <v>57.777777777777779</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="8"/>
-        <v>68.888888888888872</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="8"/>
-        <v>122.22222222222221</v>
+        <v>124.44444444444443</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="8"/>
-        <v>308.88888888888886</v>
+        <v>311.11111111111109</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="8"/>
-        <v>842.22222222222217</v>
+        <v>844.44444444444446</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="8"/>
-        <v>2708.8888888888887</v>
+        <v>2711.1111111111109</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -4260,35 +4263,35 @@
       </c>
       <c r="E19" s="13">
         <f t="shared" ref="E19:L26" si="11">E8*320</f>
-        <v>84.444444444444429</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="11"/>
-        <v>93.333333333333314</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="11"/>
-        <v>111.11111111111109</v>
+        <v>115.55555555555556</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="11"/>
-        <v>137.77777777777774</v>
+        <v>142.22222222222223</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="11"/>
-        <v>244.44444444444443</v>
+        <v>248.88888888888886</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="11"/>
-        <v>617.77777777777771</v>
+        <v>622.22222222222217</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="11"/>
-        <v>1684.4444444444443</v>
+        <v>1688.8888888888889</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="11"/>
-        <v>5417.7777777777774</v>
+        <v>5422.2222222222217</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -4305,35 +4308,35 @@
       </c>
       <c r="E20" s="13">
         <f t="shared" si="11"/>
-        <v>168.88888888888886</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="11"/>
-        <v>186.66666666666663</v>
+        <v>195.55555555555554</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="11"/>
-        <v>222.22222222222217</v>
+        <v>231.11111111111111</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="11"/>
-        <v>275.55555555555549</v>
+        <v>284.44444444444446</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="11"/>
-        <v>488.88888888888886</v>
+        <v>497.77777777777771</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="11"/>
-        <v>1235.5555555555554</v>
+        <v>1244.4444444444443</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="11"/>
-        <v>3368.8888888888887</v>
+        <v>3377.7777777777778</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="11"/>
-        <v>10835.555555555555</v>
+        <v>10844.444444444443</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -4350,35 +4353,35 @@
       </c>
       <c r="E21" s="13">
         <f t="shared" si="11"/>
-        <v>253.33333333333331</v>
+        <v>266.66666666666663</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="11"/>
-        <v>280</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="11"/>
-        <v>333.33333333333326</v>
+        <v>346.66666666666663</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="11"/>
-        <v>413.33333333333326</v>
+        <v>426.66666666666663</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="11"/>
-        <v>733.33333333333326</v>
+        <v>746.66666666666652</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="11"/>
-        <v>1853.333333333333</v>
+        <v>1866.6666666666665</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="11"/>
-        <v>5053.333333333333</v>
+        <v>5066.6666666666661</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="11"/>
-        <v>16253.333333333332</v>
+        <v>16266.666666666664</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -4395,35 +4398,35 @@
       </c>
       <c r="E22" s="13">
         <f t="shared" si="11"/>
-        <v>337.77777777777771</v>
+        <v>355.55555555555554</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="11"/>
-        <v>373.33333333333326</v>
+        <v>391.11111111111109</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="11"/>
-        <v>444.44444444444434</v>
+        <v>462.22222222222223</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="11"/>
-        <v>551.11111111111097</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="11"/>
-        <v>977.77777777777771</v>
+        <v>995.55555555555543</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="11"/>
-        <v>2471.1111111111109</v>
+        <v>2488.8888888888887</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="11"/>
-        <v>6737.7777777777774</v>
+        <v>6755.5555555555557</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="11"/>
-        <v>21671.111111111109</v>
+        <v>21688.888888888887</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -4440,35 +4443,35 @@
       </c>
       <c r="E23" s="13">
         <f t="shared" si="11"/>
-        <v>422.22222222222223</v>
+        <v>444.44444444444446</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="11"/>
-        <v>466.66666666666663</v>
+        <v>488.88888888888891</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="11"/>
-        <v>555.55555555555554</v>
+        <v>577.77777777777771</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="11"/>
-        <v>688.88888888888891</v>
+        <v>711.11111111111109</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="11"/>
-        <v>1222.2222222222222</v>
+        <v>1244.4444444444443</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="11"/>
-        <v>3088.8888888888887</v>
+        <v>3111.1111111111113</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="11"/>
-        <v>8422.2222222222226</v>
+        <v>8444.4444444444434</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="11"/>
-        <v>27088.888888888891</v>
+        <v>27111.111111111109</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -4485,35 +4488,35 @@
       </c>
       <c r="E24" s="13">
         <f t="shared" si="11"/>
-        <v>506.66666666666663</v>
+        <v>533.33333333333326</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="11"/>
-        <v>560</v>
+        <v>586.66666666666663</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="11"/>
-        <v>666.66666666666652</v>
+        <v>693.33333333333326</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="11"/>
-        <v>826.66666666666652</v>
+        <v>853.33333333333326</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="11"/>
-        <v>1466.6666666666665</v>
+        <v>1493.333333333333</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="11"/>
-        <v>3706.6666666666661</v>
+        <v>3733.333333333333</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="11"/>
-        <v>10106.666666666666</v>
+        <v>10133.333333333332</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="11"/>
-        <v>32506.666666666664</v>
+        <v>32533.333333333328</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -4530,35 +4533,35 @@
       </c>
       <c r="E25" s="13">
         <f t="shared" si="11"/>
-        <v>675.55555555555543</v>
+        <v>711.11111111111109</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="11"/>
-        <v>746.66666666666652</v>
+        <v>782.22222222222217</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="11"/>
-        <v>888.88888888888869</v>
+        <v>924.44444444444446</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="11"/>
-        <v>1102.2222222222219</v>
+        <v>1137.7777777777778</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="11"/>
-        <v>1955.5555555555554</v>
+        <v>1991.1111111111109</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="11"/>
-        <v>4942.2222222222217</v>
+        <v>4977.7777777777774</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="11"/>
-        <v>13475.555555555555</v>
+        <v>13511.111111111111</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="11"/>
-        <v>43342.222222222219</v>
+        <v>43377.777777777774</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -4575,35 +4578,35 @@
       </c>
       <c r="E26" s="13">
         <f t="shared" si="11"/>
-        <v>1351.1111111111109</v>
+        <v>1422.2222222222222</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="11"/>
-        <v>1493.333333333333</v>
+        <v>1564.4444444444443</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="11"/>
-        <v>1777.7777777777774</v>
+        <v>1848.8888888888889</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="11"/>
-        <v>2204.4444444444439</v>
+        <v>2275.5555555555557</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="11"/>
-        <v>3911.1111111111109</v>
+        <v>3982.2222222222217</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="11"/>
-        <v>9884.4444444444434</v>
+        <v>9955.5555555555547</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="11"/>
-        <v>26951.111111111109</v>
+        <v>27022.222222222223</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="11"/>
-        <v>86684.444444444438</v>
+        <v>86755.555555555547</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4641,35 +4644,35 @@
       </c>
       <c r="E29" s="2">
         <f>1/E18*1000</f>
-        <v>23.684210526315795</v>
+        <v>22.5</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ref="F29:L29" si="15">1/F18*1000</f>
-        <v>21.428571428571431</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="15"/>
-        <v>18.000000000000007</v>
+        <v>17.30769230769231</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="15"/>
-        <v>14.516129032258069</v>
+        <v>14.062499999999998</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="15"/>
-        <v>8.1818181818181817</v>
+        <v>8.0357142857142865</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="15"/>
-        <v>3.2374100719424463</v>
+        <v>3.2142857142857149</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="15"/>
-        <v>1.187335092348285</v>
+        <v>1.1842105263157896</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="15"/>
-        <v>0.36915504511894998</v>
+        <v>0.36885245901639352</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -4686,35 +4689,35 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ref="E30:L30" si="17">1/E19*1000</f>
-        <v>11.842105263157897</v>
+        <v>11.25</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="17"/>
-        <v>10.714285714285715</v>
+        <v>10.227272727272727</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="17"/>
-        <v>9.0000000000000036</v>
+        <v>8.6538461538461551</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="17"/>
-        <v>7.2580645161290347</v>
+        <v>7.0312499999999991</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="17"/>
-        <v>4.0909090909090908</v>
+        <v>4.0178571428571432</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="17"/>
-        <v>1.6187050359712232</v>
+        <v>1.6071428571428574</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="17"/>
-        <v>0.59366754617414252</v>
+        <v>0.5921052631578948</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="17"/>
-        <v>0.18457752255947499</v>
+        <v>0.18442622950819676</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -4731,35 +4734,35 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ref="E31:L31" si="18">1/E20*1000</f>
-        <v>5.9210526315789487</v>
+        <v>5.625</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="18"/>
-        <v>5.3571428571428577</v>
+        <v>5.1136363636363633</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="18"/>
-        <v>4.5000000000000018</v>
+        <v>4.3269230769230775</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="18"/>
-        <v>3.6290322580645173</v>
+        <v>3.5156249999999996</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="18"/>
-        <v>2.0454545454545454</v>
+        <v>2.0089285714285716</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="18"/>
-        <v>0.80935251798561159</v>
+        <v>0.80357142857142871</v>
       </c>
       <c r="K31" s="5">
         <f t="shared" si="18"/>
-        <v>0.29683377308707126</v>
+        <v>0.2960526315789474</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="18"/>
-        <v>9.2288761279737494E-2</v>
+        <v>9.221311475409838E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -4776,35 +4779,35 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ref="E32:L32" si="20">1/E21*1000</f>
-        <v>3.9473684210526319</v>
+        <v>3.7500000000000009</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="20"/>
-        <v>3.5714285714285712</v>
+        <v>3.4090909090909092</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="20"/>
-        <v>3.0000000000000004</v>
+        <v>2.8846153846153846</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="20"/>
-        <v>2.4193548387096779</v>
+        <v>2.3437500000000004</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="20"/>
-        <v>1.3636363636363638</v>
+        <v>1.3392857142857144</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="20"/>
-        <v>0.53956834532374109</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="20"/>
-        <v>0.19788918205804751</v>
+        <v>0.19736842105263161</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="20"/>
-        <v>6.1525840853158334E-2</v>
+        <v>6.1475409836065587E-2</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -4821,35 +4824,35 @@
       </c>
       <c r="E33" s="2">
         <f>1/E22*1000</f>
-        <v>2.9605263157894743</v>
+        <v>2.8125</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ref="F33:L33" si="21">1/F22*1000</f>
-        <v>2.6785714285714288</v>
+        <v>2.5568181818181817</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="21"/>
-        <v>2.2500000000000009</v>
+        <v>2.1634615384615388</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="21"/>
-        <v>1.8145161290322587</v>
+        <v>1.7578124999999998</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="21"/>
-        <v>1.0227272727272727</v>
+        <v>1.0044642857142858</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="21"/>
-        <v>0.40467625899280579</v>
+        <v>0.40178571428571436</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="21"/>
-        <v>0.14841688654353563</v>
+        <v>0.1480263157894737</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="21"/>
-        <v>4.6144380639868747E-2</v>
+        <v>4.610655737704919E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -4866,35 +4869,35 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" ref="E34:L34" si="23">1/E23*1000</f>
-        <v>2.3684210526315792</v>
+        <v>2.25</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="23"/>
-        <v>2.1428571428571428</v>
+        <v>2.045454545454545</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="23"/>
-        <v>1.8</v>
+        <v>1.7307692307692311</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="23"/>
-        <v>1.4516129032258063</v>
+        <v>1.40625</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="23"/>
-        <v>0.81818181818181823</v>
+        <v>0.80357142857142871</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="23"/>
-        <v>0.32374100719424459</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" si="23"/>
-        <v>0.11873350923482849</v>
+        <v>0.11842105263157895</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="23"/>
-        <v>3.6915504511895E-2</v>
+        <v>3.6885245901639344E-2</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -4911,35 +4914,35 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" ref="E35:L35" si="24">1/E24*1000</f>
-        <v>1.9736842105263159</v>
+        <v>1.8750000000000004</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="24"/>
-        <v>1.7857142857142856</v>
+        <v>1.7045454545454546</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="24"/>
-        <v>1.5000000000000002</v>
+        <v>1.4423076923076923</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="24"/>
-        <v>1.209677419354839</v>
+        <v>1.1718750000000002</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="24"/>
-        <v>0.68181818181818188</v>
+        <v>0.66964285714285721</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="24"/>
-        <v>0.26978417266187055</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="24"/>
-        <v>9.8944591029023754E-2</v>
+        <v>9.8684210526315805E-2</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="24"/>
-        <v>3.0762920426579167E-2</v>
+        <v>3.0737704918032793E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -4956,35 +4959,35 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" ref="E36:L36" si="26">1/E26*1000</f>
-        <v>0.74013157894736858</v>
+        <v>0.703125</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="26"/>
-        <v>0.66964285714285721</v>
+        <v>0.63920454545454541</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="26"/>
-        <v>0.56250000000000022</v>
+        <v>0.54086538461538469</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="26"/>
-        <v>0.45362903225806467</v>
+        <v>0.43945312499999994</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="26"/>
-        <v>0.25568181818181818</v>
+        <v>0.25111607142857145</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="26"/>
-        <v>0.10116906474820145</v>
+        <v>0.10044642857142859</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" si="26"/>
-        <v>3.7104221635883908E-2</v>
+        <v>3.7006578947368425E-2</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="26"/>
-        <v>1.1536095159967187E-2</v>
+        <v>1.1526639344262297E-2</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -5023,11 +5026,11 @@
       </c>
       <c r="D39" s="5">
         <f>E7</f>
-        <v>0.13194444444444442</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F39" s="5">
         <f>D39*320</f>
-        <v>42.222222222222214</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -5040,11 +5043,11 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" ref="D40:D47" si="28">E8</f>
-        <v>0.26388888888888884</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" ref="F40:F92" si="29">D40*320</f>
-        <v>84.444444444444429</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -5057,11 +5060,11 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" si="28"/>
-        <v>0.52777777777777768</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="29"/>
-        <v>168.88888888888886</v>
+        <v>177.77777777777777</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -5074,11 +5077,11 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" si="28"/>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="29"/>
-        <v>253.33333333333331</v>
+        <v>266.66666666666663</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -5091,11 +5094,11 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" si="28"/>
-        <v>1.0555555555555554</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="29"/>
-        <v>337.77777777777771</v>
+        <v>355.55555555555554</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -5108,11 +5111,11 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" si="28"/>
-        <v>1.3194444444444444</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="29"/>
-        <v>422.22222222222223</v>
+        <v>444.44444444444446</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -5125,11 +5128,11 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" si="28"/>
-        <v>1.5833333333333333</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="29"/>
-        <v>506.66666666666663</v>
+        <v>533.33333333333326</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -5142,11 +5145,11 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="28"/>
-        <v>2.1111111111111107</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="29"/>
-        <v>675.55555555555543</v>
+        <v>711.11111111111109</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -5159,11 +5162,11 @@
       </c>
       <c r="D47" s="5">
         <f t="shared" si="28"/>
-        <v>4.2222222222222214</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="29"/>
-        <v>1351.1111111111109</v>
+        <v>1422.2222222222222</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -5176,11 +5179,11 @@
       </c>
       <c r="D48" s="5">
         <f>F7</f>
-        <v>0.14583333333333331</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="29"/>
-        <v>46.666666666666657</v>
+        <v>48.888888888888886</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -5193,11 +5196,11 @@
       </c>
       <c r="D49" s="5">
         <f t="shared" ref="D49:D56" si="31">F8</f>
-        <v>0.29166666666666663</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="29"/>
-        <v>93.333333333333314</v>
+        <v>97.777777777777771</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -5210,11 +5213,11 @@
       </c>
       <c r="D50" s="5">
         <f t="shared" si="31"/>
-        <v>0.58333333333333326</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="29"/>
-        <v>186.66666666666663</v>
+        <v>195.55555555555554</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -5227,11 +5230,11 @@
       </c>
       <c r="D51" s="5">
         <f t="shared" si="31"/>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="29"/>
-        <v>280</v>
+        <v>293.33333333333331</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -5244,11 +5247,11 @@
       </c>
       <c r="D52" s="5">
         <f t="shared" si="31"/>
-        <v>1.1666666666666665</v>
+        <v>1.2222222222222221</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="29"/>
-        <v>373.33333333333326</v>
+        <v>391.11111111111109</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -5261,11 +5264,11 @@
       </c>
       <c r="D53" s="5">
         <f t="shared" si="31"/>
-        <v>1.4583333333333333</v>
+        <v>1.5277777777777779</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="29"/>
-        <v>466.66666666666663</v>
+        <v>488.88888888888891</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -5278,11 +5281,11 @@
       </c>
       <c r="D54" s="5">
         <f t="shared" si="31"/>
-        <v>1.75</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="29"/>
-        <v>560</v>
+        <v>586.66666666666663</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -5295,11 +5298,11 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" si="31"/>
-        <v>2.333333333333333</v>
+        <v>2.4444444444444442</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="29"/>
-        <v>746.66666666666652</v>
+        <v>782.22222222222217</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -5312,11 +5315,11 @@
       </c>
       <c r="D56" s="5">
         <f t="shared" si="31"/>
-        <v>4.6666666666666661</v>
+        <v>4.8888888888888884</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="29"/>
-        <v>1493.333333333333</v>
+        <v>1564.4444444444443</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -5329,11 +5332,11 @@
       </c>
       <c r="D57" s="5">
         <f>G7</f>
-        <v>0.17361111111111108</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="29"/>
-        <v>55.555555555555543</v>
+        <v>57.777777777777779</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -5346,11 +5349,11 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" ref="D58:D65" si="33">G8</f>
-        <v>0.34722222222222215</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="29"/>
-        <v>111.11111111111109</v>
+        <v>115.55555555555556</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -5363,11 +5366,11 @@
       </c>
       <c r="D59" s="5">
         <f t="shared" si="33"/>
-        <v>0.69444444444444431</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="29"/>
-        <v>222.22222222222217</v>
+        <v>231.11111111111111</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -5380,11 +5383,11 @@
       </c>
       <c r="D60" s="5">
         <f t="shared" si="33"/>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="29"/>
-        <v>333.33333333333326</v>
+        <v>346.66666666666663</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -5397,11 +5400,11 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" si="33"/>
-        <v>1.3888888888888886</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="29"/>
-        <v>444.44444444444434</v>
+        <v>462.22222222222223</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -5414,11 +5417,11 @@
       </c>
       <c r="D62" s="5">
         <f t="shared" si="33"/>
-        <v>1.7361111111111112</v>
+        <v>1.8055555555555554</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="29"/>
-        <v>555.55555555555554</v>
+        <v>577.77777777777771</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -5431,11 +5434,11 @@
       </c>
       <c r="D63" s="5">
         <f t="shared" si="33"/>
-        <v>2.083333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="29"/>
-        <v>666.66666666666652</v>
+        <v>693.33333333333326</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -5448,11 +5451,11 @@
       </c>
       <c r="D64" s="5">
         <f t="shared" si="33"/>
-        <v>2.7777777777777772</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="F64" s="5">
         <f>D64*320</f>
-        <v>888.88888888888869</v>
+        <v>924.44444444444446</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -5465,11 +5468,11 @@
       </c>
       <c r="D65" s="5">
         <f t="shared" si="33"/>
-        <v>5.5555555555555545</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="29"/>
-        <v>1777.7777777777774</v>
+        <v>1848.8888888888889</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -5482,11 +5485,11 @@
       </c>
       <c r="D66" s="5">
         <f>H7</f>
-        <v>0.21527777777777773</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="29"/>
-        <v>68.888888888888872</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -5499,11 +5502,11 @@
       </c>
       <c r="D67" s="5">
         <f t="shared" ref="D67:D74" si="35">H8</f>
-        <v>0.43055555555555547</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="29"/>
-        <v>137.77777777777774</v>
+        <v>142.22222222222223</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -5516,11 +5519,11 @@
       </c>
       <c r="D68" s="5">
         <f t="shared" si="35"/>
-        <v>0.86111111111111094</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="29"/>
-        <v>275.55555555555549</v>
+        <v>284.44444444444446</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -5533,11 +5536,11 @@
       </c>
       <c r="D69" s="5">
         <f t="shared" si="35"/>
-        <v>1.2916666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="29"/>
-        <v>413.33333333333326</v>
+        <v>426.66666666666663</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -5550,11 +5553,11 @@
       </c>
       <c r="D70" s="5">
         <f t="shared" si="35"/>
-        <v>1.7222222222222219</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="29"/>
-        <v>551.11111111111097</v>
+        <v>568.88888888888891</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -5567,11 +5570,11 @@
       </c>
       <c r="D71" s="5">
         <f t="shared" si="35"/>
-        <v>2.1527777777777777</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="29"/>
-        <v>688.88888888888891</v>
+        <v>711.11111111111109</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -5584,11 +5587,11 @@
       </c>
       <c r="D72" s="5">
         <f t="shared" si="35"/>
-        <v>2.583333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" si="29"/>
-        <v>826.66666666666652</v>
+        <v>853.33333333333326</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -5601,11 +5604,11 @@
       </c>
       <c r="D73" s="5">
         <f t="shared" si="35"/>
-        <v>3.4444444444444438</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="29"/>
-        <v>1102.2222222222219</v>
+        <v>1137.7777777777778</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -5618,11 +5621,11 @@
       </c>
       <c r="D74" s="5">
         <f t="shared" si="35"/>
-        <v>6.8888888888888875</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="29"/>
-        <v>2204.4444444444439</v>
+        <v>2275.5555555555557</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -5635,11 +5638,11 @@
       </c>
       <c r="D75" s="5">
         <f>I7</f>
-        <v>0.38194444444444442</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="29"/>
-        <v>122.22222222222221</v>
+        <v>124.44444444444443</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -5652,11 +5655,11 @@
       </c>
       <c r="D76" s="5">
         <f t="shared" ref="D76:D83" si="37">I8</f>
-        <v>0.76388888888888884</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="29"/>
-        <v>244.44444444444443</v>
+        <v>248.88888888888886</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -5669,11 +5672,11 @@
       </c>
       <c r="D77" s="5">
         <f t="shared" si="37"/>
-        <v>1.5277777777777777</v>
+        <v>1.5555555555555554</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="29"/>
-        <v>488.88888888888886</v>
+        <v>497.77777777777771</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -5686,11 +5689,11 @@
       </c>
       <c r="D78" s="5">
         <f t="shared" si="37"/>
-        <v>2.2916666666666665</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="29"/>
-        <v>733.33333333333326</v>
+        <v>746.66666666666652</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -5703,11 +5706,11 @@
       </c>
       <c r="D79" s="5">
         <f t="shared" si="37"/>
-        <v>3.0555555555555554</v>
+        <v>3.1111111111111107</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="29"/>
-        <v>977.77777777777771</v>
+        <v>995.55555555555543</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
@@ -5720,11 +5723,11 @@
       </c>
       <c r="D80" s="5">
         <f t="shared" si="37"/>
-        <v>3.8194444444444442</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="29"/>
-        <v>1222.2222222222222</v>
+        <v>1244.4444444444443</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -5737,11 +5740,11 @@
       </c>
       <c r="D81" s="5">
         <f t="shared" si="37"/>
-        <v>4.583333333333333</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="F81" s="5">
         <f t="shared" si="29"/>
-        <v>1466.6666666666665</v>
+        <v>1493.333333333333</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
@@ -5754,11 +5757,11 @@
       </c>
       <c r="D82" s="5">
         <f t="shared" si="37"/>
-        <v>6.1111111111111107</v>
+        <v>6.2222222222222214</v>
       </c>
       <c r="F82" s="5">
         <f t="shared" si="29"/>
-        <v>1955.5555555555554</v>
+        <v>1991.1111111111109</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -5771,11 +5774,11 @@
       </c>
       <c r="D83" s="5">
         <f t="shared" si="37"/>
-        <v>12.222222222222221</v>
+        <v>12.444444444444443</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" si="29"/>
-        <v>3911.1111111111109</v>
+        <v>3982.2222222222217</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -5788,11 +5791,11 @@
       </c>
       <c r="D84" s="5">
         <f>J7</f>
-        <v>0.96527777777777768</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="F84" s="5">
         <f t="shared" si="29"/>
-        <v>308.88888888888886</v>
+        <v>311.11111111111109</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -5805,11 +5808,11 @@
       </c>
       <c r="D85" s="5">
         <f t="shared" ref="D85:D92" si="39">J8</f>
-        <v>1.9305555555555554</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" si="29"/>
-        <v>617.77777777777771</v>
+        <v>622.22222222222217</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -5822,11 +5825,11 @@
       </c>
       <c r="D86" s="5">
         <f t="shared" si="39"/>
-        <v>3.8611111111111107</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="F86" s="5">
         <f t="shared" si="29"/>
-        <v>1235.5555555555554</v>
+        <v>1244.4444444444443</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -5839,11 +5842,11 @@
       </c>
       <c r="D87" s="5">
         <f t="shared" si="39"/>
-        <v>5.7916666666666661</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="F87" s="5">
         <f>D87*320</f>
-        <v>1853.333333333333</v>
+        <v>1866.6666666666665</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -5856,11 +5859,11 @@
       </c>
       <c r="D88" s="5">
         <f t="shared" si="39"/>
-        <v>7.7222222222222214</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="F88" s="5">
         <f t="shared" si="29"/>
-        <v>2471.1111111111109</v>
+        <v>2488.8888888888887</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
@@ -5873,11 +5876,11 @@
       </c>
       <c r="D89" s="5">
         <f t="shared" si="39"/>
-        <v>9.6527777777777768</v>
+        <v>9.7222222222222232</v>
       </c>
       <c r="F89" s="5">
         <f t="shared" si="29"/>
-        <v>3088.8888888888887</v>
+        <v>3111.1111111111113</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
@@ -5890,11 +5893,11 @@
       </c>
       <c r="D90" s="5">
         <f t="shared" si="39"/>
-        <v>11.583333333333332</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="F90" s="5">
         <f t="shared" si="29"/>
-        <v>3706.6666666666661</v>
+        <v>3733.333333333333</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
@@ -5907,11 +5910,11 @@
       </c>
       <c r="D91" s="5">
         <f t="shared" si="39"/>
-        <v>15.444444444444443</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="F91" s="5">
         <f t="shared" si="29"/>
-        <v>4942.2222222222217</v>
+        <v>4977.7777777777774</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
@@ -5924,11 +5927,11 @@
       </c>
       <c r="D92" s="5">
         <f t="shared" si="39"/>
-        <v>30.888888888888886</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="F92" s="5">
         <f t="shared" si="29"/>
-        <v>9884.4444444444434</v>
+        <v>9955.5555555555547</v>
       </c>
     </row>
   </sheetData>
@@ -7034,7 +7037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>

--- a/ADC_time-F3.xlsx
+++ b/ADC_time-F3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="516"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="169">
   <si>
     <t>SysCLK</t>
   </si>
@@ -276,9 +276,6 @@
     <t>AHB / ADC Pre</t>
   </si>
   <si>
-    <t>Out Hz</t>
-  </si>
-  <si>
     <t>Pre out, Hz</t>
   </si>
   <si>
@@ -523,6 +520,12 @@
   </si>
   <si>
     <t>OA inv</t>
+  </si>
+  <si>
+    <t>Out kHz</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -688,9 +691,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -708,7 +714,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -771,7 +777,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1647,7 +1653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="127046400"/>
@@ -1706,7 +1712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="127040128"/>
@@ -1749,7 +1755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1779,7 +1785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1793,7 +1799,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1838,7 +1844,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1864,7 +1869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2003,7 +2008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="437984864"/>
@@ -2062,7 +2067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="437989784"/>
@@ -2103,7 +2108,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3404,9 +3409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3444,7 +3449,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3516,7 +3521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3692,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3713,7 +3718,7 @@
         <v>72000000</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -5943,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +5965,7 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -5977,13 +5982,16 @@
         <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>167</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -5998,8 +6006,8 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <f>C6/(D6+1)</f>
-        <v>100000</v>
+        <f>C6/(D6+1)/1000</f>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>100000</v>
@@ -6017,8 +6025,8 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E11" si="1">C7/(D7+1)</f>
-        <v>80000</v>
+        <f t="shared" ref="E7:E11" si="1">C7/(D7+1)/1000</f>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>80000</v>
@@ -6037,7 +6045,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>60000</v>
@@ -6056,7 +6064,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>40000</v>
@@ -6075,7 +6083,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>20000</v>
@@ -6094,7 +6102,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>10000</v>
@@ -6120,8 +6128,8 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <f>C13/(D13+1)</f>
-        <v>1000000</v>
+        <f>C13/(D13+1)/1000</f>
+        <v>1000</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -6139,8 +6147,8 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E18" si="3">C14/(D14+1)</f>
-        <v>800000</v>
+        <f t="shared" ref="E14:E18" si="3">C14/(D14+1)/1000</f>
+        <v>800</v>
       </c>
       <c r="G14">
         <v>80000</v>
@@ -6159,7 +6167,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>600000</v>
+        <v>600</v>
       </c>
       <c r="G15">
         <v>60000</v>
@@ -6178,7 +6186,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="G16">
         <v>40000</v>
@@ -6197,7 +6205,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G17">
         <v>20000</v>
@@ -6216,10 +6224,122 @@
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f>$C$3/(B20+1)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f>C20/(D20+1)/1000</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C26" si="4">$C$3/(B21+1)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E26" si="5">C21/(D21+1)/1000</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>144000000</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>48000000</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>28800000</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>144000000</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>144000000</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
@@ -6239,317 +6359,317 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
@@ -6559,12 +6679,12 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
@@ -6574,27 +6694,27 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
@@ -7045,22 +7165,22 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4">
         <v>680</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>3.3</v>
@@ -7071,7 +7191,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5">
         <f>C11+150+56</f>
@@ -7079,7 +7199,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -7090,7 +7210,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <f>(C4+C5)/C5</f>
@@ -7098,7 +7218,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6">
         <f>1+F5/F4</f>
@@ -7107,7 +7227,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7116,7 +7236,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <f>C7/C6</f>
@@ -7129,7 +7249,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <f>C4</f>
@@ -7139,7 +7259,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <f>8.2+8.2+1</f>
@@ -7149,7 +7269,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12">
         <f>(C10+C11)/C11</f>
@@ -7195,7 +7315,7 @@
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O17">
         <v>4</v>
@@ -7216,7 +7336,7 @@
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -7231,7 +7351,7 @@
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -7246,7 +7366,7 @@
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21">
         <f>F20/F19</f>
